--- a/outputs/ML_Results/dist_commute/Leipzig.xlsx
+++ b/outputs/ML_Results/dist_commute/Leipzig.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ09474280" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ09775545" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ10070266" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ10367790" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ10687485" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ10998257" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ11331019" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ11654641" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ11980086" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ19178014" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ19414263" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ19678998" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ20003946" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ20308641" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ20615596" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ20881251" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ21147308" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ21428696" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -501,7 +501,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown]</t>
+          <t>Education[T.Unknown/Other]</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -745,7 +745,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown]</t>
+          <t>Education[T.Unknown/Other]</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -989,7 +989,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown]</t>
+          <t>Education[T.Unknown/Other]</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -1233,7 +1233,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown]</t>
+          <t>Education[T.Unknown/Other]</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -1477,7 +1477,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown]</t>
+          <t>Education[T.Unknown/Other]</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -1721,7 +1721,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown]</t>
+          <t>Education[T.Unknown/Other]</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -1965,7 +1965,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown]</t>
+          <t>Education[T.Unknown/Other]</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -2209,7 +2209,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown]</t>
+          <t>Education[T.Unknown/Other]</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -2453,7 +2453,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown]</t>
+          <t>Education[T.Unknown/Other]</t>
         </is>
       </c>
       <c r="B5" t="n">

--- a/outputs/ML_Results/dist_commute/Leipzig.xlsx
+++ b/outputs/ML_Results/dist_commute/Leipzig.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ19178014" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ19414263" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ19678998" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ20003946" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ20308641" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ20615596" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ20881251" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ21147308" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ21428696" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ55077076" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ55267027" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ55472550" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ55667129" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ55861763" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ56050671" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ56246027" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ56435032" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ56625575" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,205 +466,244 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4380.385997023468</v>
+        <v>-2162.979324538224</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2762686028893306</v>
+        <v>0.5832351171227304</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-3736.316435671849</v>
+        <v>-1956.57744153977</v>
       </c>
       <c r="C3" t="n">
-        <v>0.001297315994455696</v>
+        <v>0.453089369859632</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-4671.082328701013</v>
+        <v>447.8059771910899</v>
       </c>
       <c r="C4" t="n">
-        <v>5.697718413187031e-05</v>
+        <v>0.7014024246142423</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-6967.421066365099</v>
+        <v>-977.6163418770144</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02652579751205137</v>
+        <v>0.0440174230489936</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>406.2639710420428</v>
+        <v>528.7599739931343</v>
       </c>
       <c r="C6" t="n">
-        <v>0.03070977228138954</v>
+        <v>0.3761719637963514</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Season[T.Summer]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1829.775297974244</v>
+        <v>-174.7004586806873</v>
       </c>
       <c r="C7" t="n">
-        <v>6.765450334068057e-06</v>
+        <v>0.7767904245226606</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-27.65082239194995</v>
+        <v>-54.17121621971927</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1543355972088805</v>
+        <v>0.9307542619528214</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>396.8526586676752</v>
+        <v>316.4715990932069</v>
       </c>
       <c r="C9" t="n">
-        <v>0.05021158760609835</v>
+        <v>0.1087488647169929</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>833.9219768336129</v>
+        <v>-1870.295981595641</v>
       </c>
       <c r="C10" t="n">
-        <v>1.100178815175827e-05</v>
+        <v>1.039392017342865e-05</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.03862054995851552</v>
+        <v>-33.48475522836647</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8601336142892452</v>
+        <v>0.09530322395215426</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2.910336177358512e-05</v>
+        <v>249.8812724599509</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3421389835280908</v>
+        <v>0.238301709462112</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>111.2274249170812</v>
+        <v>882.5302702796218</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01096137588463634</v>
+        <v>1.075815875222905e-05</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>43.9720223147536</v>
+        <v>-0.06509053596760833</v>
       </c>
       <c r="C14" t="n">
-        <v>0.05839503896226406</v>
+        <v>0.7750003448775094</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-8294.252406844578</v>
+        <v>0.0001421345314552166</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01087073541153947</v>
+        <v>0.2183714720688381</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-8321.009167232714</v>
+        <v>131.3843915843905</v>
       </c>
       <c r="C16" t="n">
-        <v>0.08324402907011488</v>
+        <v>0.004614023779743567</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>street_length_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>54.79714624330452</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.02391706815553074</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-9796.591316089329</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.006817555895811732</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>-7253.903041275493</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.1563244770228284</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>-237.1594040390878</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.9145549060805953</v>
+      <c r="B20" t="n">
+        <v>-2947.551234406144</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.2092396367128242</v>
       </c>
     </row>
   </sheetData>
@@ -678,7 +717,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -710,205 +749,244 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6968.393577889381</v>
+        <v>-1260.970791802835</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1014720264600463</v>
+        <v>0.7578865221717519</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-4439.815573941798</v>
+        <v>-2919.47328752046</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0006748228600966599</v>
+        <v>0.1969402422814156</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-5180.772200982796</v>
+        <v>283.8702675671981</v>
       </c>
       <c r="C4" t="n">
-        <v>7.004581254464207e-05</v>
+        <v>0.8046733532174313</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-8815.773777316626</v>
+        <v>-858.9298786586809</v>
       </c>
       <c r="C5" t="n">
-        <v>0.003659147277310864</v>
+        <v>0.08259939220076265</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>509.4886453685737</v>
+        <v>467.5281762131926</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0107272065058911</v>
+        <v>0.4397520557340604</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Season[T.Summer]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1983.192226888607</v>
+        <v>-343.9925670138518</v>
       </c>
       <c r="C7" t="n">
-        <v>4.350312838636158e-06</v>
+        <v>0.5834767751300796</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-27.98473875266313</v>
+        <v>-88.72958042163657</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1673668551487299</v>
+        <v>0.8901041288300461</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>199.8146056683436</v>
+        <v>343.7933932933638</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3546371707379553</v>
+        <v>0.0841433477841682</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>824.6941559145234</v>
+        <v>-1795.419211369705</v>
       </c>
       <c r="C10" t="n">
-        <v>3.700426521002722e-05</v>
+        <v>3.050236359605737e-05</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.0888680651523004</v>
+        <v>-31.35565098387175</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6985078409231585</v>
+        <v>0.1291418852034751</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2.998041389898824e-05</v>
+        <v>337.7536726697313</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3525656516368558</v>
+        <v>0.122891310134152</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>121.2652316651842</v>
+        <v>869.4558904419239</v>
       </c>
       <c r="C13" t="n">
-        <v>0.00770990632733044</v>
+        <v>2.578422094954419e-05</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>37.76976015295617</v>
+        <v>-0.05942168754003412</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1237035683449071</v>
+        <v>0.7970601788892798</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-10749.69583666065</v>
+        <v>0.0001664371736413507</v>
       </c>
       <c r="C15" t="n">
-        <v>0.001181978030788139</v>
+        <v>0.1568550324286831</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-7963.962195168694</v>
+        <v>102.1695814069161</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1104743566617751</v>
+        <v>0.02985446380823706</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>street_length_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>48.22797437376347</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.05278723838560756</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-10418.08038189263</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.003702246166738263</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>-5760.74193867565</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.2650281999081638</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>-1670.68127879679</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.4748056595304796</v>
+      <c r="B20" t="n">
+        <v>-917.6322106572363</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.6965875324640458</v>
       </c>
     </row>
   </sheetData>
@@ -922,7 +1000,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -954,205 +1032,244 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7440.091347324816</v>
+        <v>338.0476323535599</v>
       </c>
       <c r="C2" t="n">
-        <v>0.07555533458847877</v>
+        <v>0.9331840001284362</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-4420.358774036876</v>
+        <v>-1661.627186258003</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0004897425072475684</v>
+        <v>0.4875297234936981</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-5330.707386458724</v>
+        <v>1049.735055884742</v>
       </c>
       <c r="C4" t="n">
-        <v>2.451922264414016e-05</v>
+        <v>0.3757994117451073</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-8891.151940723099</v>
+        <v>-887.8651889562018</v>
       </c>
       <c r="C5" t="n">
-        <v>0.002451930577829769</v>
+        <v>0.06556297223801394</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>254.2740803504813</v>
+        <v>575.9696846985828</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1891753997181355</v>
+        <v>0.3373093737542314</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Season[T.Summer]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1403.528498443035</v>
+        <v>-180.7007310276472</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0007604390657202263</v>
+        <v>0.7699381991882942</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-18.16286000601634</v>
+        <v>160.2021921417289</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3605117649330567</v>
+        <v>0.7996103821108979</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>281.1756286399801</v>
+        <v>385.1525030534422</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1779209605847919</v>
+        <v>0.05507464629850244</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>594.6185491429346</v>
+        <v>-1845.660266811134</v>
       </c>
       <c r="C10" t="n">
-        <v>0.002640097049376143</v>
+        <v>1.456812058989902e-05</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.0442207157414115</v>
+        <v>-37.75700774187823</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8370539581008579</v>
+        <v>0.06459685307064947</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4.370736213590113e-05</v>
+        <v>394.6753590216238</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1898713932323704</v>
+        <v>0.06038437407732916</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>93.05809320902202</v>
+        <v>859.9064865224678</v>
       </c>
       <c r="C13" t="n">
-        <v>0.03598229864744191</v>
+        <v>1.972927658032867e-05</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>39.34342293661516</v>
+        <v>-0.1888809707851697</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1011832271568713</v>
+        <v>0.4023271623628204</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-9543.25436686996</v>
+        <v>0.0001780380192987479</v>
       </c>
       <c r="C15" t="n">
-        <v>0.002720071946168336</v>
+        <v>0.122617099414513</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-8299.758522884436</v>
+        <v>98.42698701800077</v>
       </c>
       <c r="C16" t="n">
-        <v>0.08053262712991364</v>
+        <v>0.03416718924394788</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>street_length_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>34.42381352673195</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.1600255009195364</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-10722.74185215208</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.002898731584378516</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>-4050.921476550283</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4219660120723648</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>-2537.070855162277</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.2584970216851683</v>
+      <c r="B20" t="n">
+        <v>-980.5849755290674</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.6721630751262221</v>
       </c>
     </row>
   </sheetData>
@@ -1166,7 +1283,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1198,205 +1315,244 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8335.526181694222</v>
+        <v>446.7602255796219</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04384525905340417</v>
+        <v>0.9129210949848102</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-4094.676987602137</v>
+        <v>-2925.378285784338</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0006882005232336704</v>
+        <v>0.1971583492133837</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-5031.120042103683</v>
+        <v>1123.816604879433</v>
       </c>
       <c r="C4" t="n">
-        <v>2.991858420630786e-05</v>
+        <v>0.3429840553592579</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-8294.182238938245</v>
+        <v>-1048.715443025896</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01053628847879063</v>
+        <v>0.03414740223483834</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>214.0161404038689</v>
+        <v>607.9377788870365</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2728979050050597</v>
+        <v>0.3167704086573179</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Season[T.Summer]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1747.835141860632</v>
+        <v>-237.7084271848356</v>
       </c>
       <c r="C7" t="n">
-        <v>2.890579187419947e-05</v>
+        <v>0.7065612598805343</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-34.77354858285531</v>
+        <v>-281.3715823464201</v>
       </c>
       <c r="C8" t="n">
-        <v>0.07846571379171591</v>
+        <v>0.6596277427467263</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>375.8267372812078</v>
+        <v>326.2851501963627</v>
       </c>
       <c r="C9" t="n">
-        <v>0.07790183149122949</v>
+        <v>0.1052731450846236</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>729.8091610249985</v>
+        <v>-1852.262754644806</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0002105403687967747</v>
+        <v>1.813941544349227e-05</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.1356654481893387</v>
+        <v>-33.78161651082612</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5415283872187606</v>
+        <v>0.1021698547233887</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4.914817469547462e-05</v>
+        <v>195.5148091386729</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1173738713458753</v>
+        <v>0.3643809215207743</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.37187422913935</v>
+        <v>889.3809184776756</v>
       </c>
       <c r="C13" t="n">
-        <v>0.02986930497405071</v>
+        <v>1.43809127544995e-05</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>28.36054883652729</v>
+        <v>-0.1131720591381013</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2394531834751331</v>
+        <v>0.6255527457715105</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-10773.8371583418</v>
+        <v>0.0001567631589791746</v>
       </c>
       <c r="C15" t="n">
-        <v>0.000765150474184026</v>
+        <v>0.1823063234515749</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-4703.974355008224</v>
+        <v>114.4487706693059</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3389927876013807</v>
+        <v>0.01564299900255494</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>street_length_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>40.67435139881236</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.1001061003575959</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-11319.2153475951</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.001803648051710673</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>-6416.302092866699</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.2157036036285415</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>-1288.147259892058</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.5734720982580562</v>
+      <c r="B20" t="n">
+        <v>-2205.126977085284</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.3550883792032816</v>
       </c>
     </row>
   </sheetData>
@@ -1410,7 +1566,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1442,205 +1598,244 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2195.093366465377</v>
+        <v>-1472.83694328345</v>
       </c>
       <c r="C2" t="n">
-        <v>0.597993660412602</v>
+        <v>0.7127400185378311</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-2989.435068791464</v>
+        <v>-2701.260317082908</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01300989557837475</v>
+        <v>0.2239937929687487</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-3876.548073994506</v>
+        <v>973.5421110937771</v>
       </c>
       <c r="C4" t="n">
-        <v>0.001241970200826972</v>
+        <v>0.3875378803425975</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-7625.849241799075</v>
+        <v>-1172.683272168054</v>
       </c>
       <c r="C5" t="n">
-        <v>0.009062964421746091</v>
+        <v>0.01601320828352553</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>477.4931618785226</v>
+        <v>430.8713819013109</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01569695112136192</v>
+        <v>0.4700561182445833</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Season[T.Summer]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1371.66523220892</v>
+        <v>22.51985573657907</v>
       </c>
       <c r="C7" t="n">
-        <v>0.001073730893910131</v>
+        <v>0.9710777085599394</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-30.99588292804401</v>
+        <v>-154.8262888645804</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1195295446659007</v>
+        <v>0.8064557634261567</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>119.7623429110815</v>
+        <v>467.7785345254968</v>
       </c>
       <c r="C9" t="n">
-        <v>0.574720555399782</v>
+        <v>0.01521674929851043</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>857.6748689078672</v>
+        <v>-1898.844851343635</v>
       </c>
       <c r="C10" t="n">
-        <v>1.595404510437327e-05</v>
+        <v>7.21069953527011e-06</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.007477669769988649</v>
+        <v>-19.9479243488081</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9734131915390904</v>
+        <v>0.3185570922315045</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2.53603655672903e-05</v>
+        <v>265.5843901945518</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4384814676161279</v>
+        <v>0.2067546007456944</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>151.9658614983452</v>
+        <v>825.3651661579548</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0008337078232992767</v>
+        <v>4.093418386019214e-05</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>55.12224462148371</v>
+        <v>-0.08944179263883466</v>
       </c>
       <c r="C14" t="n">
-        <v>0.02329694276246472</v>
+        <v>0.7041775893526314</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-9788.761217000952</v>
+        <v>0.00013285676267865</v>
       </c>
       <c r="C15" t="n">
-        <v>0.003232947628640954</v>
+        <v>0.2445222685619411</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-10501.27936053537</v>
+        <v>98.6950545683622</v>
       </c>
       <c r="C16" t="n">
-        <v>0.03383138387144761</v>
+        <v>0.03335515186487176</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>street_length_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>49.52954393090396</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.04224668801438331</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-9435.34213194832</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.006914268626912614</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>-5733.060444978331</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.2681060551240345</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>-2890.62656941869</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.2027034906366297</v>
+      <c r="B20" t="n">
+        <v>-1433.414604463182</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.5368649332584043</v>
       </c>
     </row>
   </sheetData>
@@ -1654,7 +1849,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1686,205 +1881,244 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6460.324790475599</v>
+        <v>182.2734595813145</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1273186262806043</v>
+        <v>0.961829049971199</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-3791.958920108325</v>
+        <v>-6110.482078147326</v>
       </c>
       <c r="C3" t="n">
-        <v>0.002156813393677628</v>
+        <v>0.009330363662335759</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-4644.464088035299</v>
+        <v>1512.821032215799</v>
       </c>
       <c r="C4" t="n">
-        <v>0.000167892298596051</v>
+        <v>0.1714067295299627</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-8401.888568686376</v>
+        <v>-1033.394709581032</v>
       </c>
       <c r="C5" t="n">
-        <v>0.004446251332525645</v>
+        <v>0.0290865244279693</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>413.9136005085247</v>
+        <v>135.3146736472374</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0327978783783569</v>
+        <v>0.8156517426014345</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Season[T.Summer]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1545.136007502085</v>
+        <v>-373.6506417481567</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0002564137758597446</v>
+        <v>0.5354949552188843</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-30.71119213315983</v>
+        <v>-195.0080573670322</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1248126961057885</v>
+        <v>0.7521867433063866</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>297.2551743464217</v>
+        <v>442.5216195920843</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1581335825958063</v>
+        <v>0.01945345176820592</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>718.6544498884571</v>
+        <v>-1588.740136133896</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0002773129536432386</v>
+        <v>0.0001102556729981034</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.01731144491198119</v>
+        <v>-28.60248786680152</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9370725845064687</v>
+        <v>0.1452626009434535</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2.291996805037017e-05</v>
+        <v>170.0795492665736</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4984846648842158</v>
+        <v>0.4186018618151814</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>104.834707287847</v>
+        <v>796.7210449596555</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0207168408622334</v>
+        <v>4.893649200414999e-05</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>36.58594296862259</v>
+        <v>0.09570885438653125</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1323169202863359</v>
+        <v>0.6634464617519287</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-8996.101460712231</v>
+        <v>0.0001541844518303371</v>
       </c>
       <c r="C15" t="n">
-        <v>0.00559182709553542</v>
+        <v>0.1771589224383964</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-8063.992128415131</v>
+        <v>104.1533683216869</v>
       </c>
       <c r="C16" t="n">
-        <v>0.09738091784217379</v>
+        <v>0.02083758082226005</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>street_length_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>40.76288287419138</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.08310565623859333</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-9353.265819116445</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.007980688066846649</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>-8254.075032635737</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.09626290472430303</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>-1889.228953567569</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.4129521999158458</v>
+      <c r="B20" t="n">
+        <v>-3641.023672379536</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.1066859505206911</v>
       </c>
     </row>
   </sheetData>
@@ -1898,7 +2132,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1930,205 +2164,244 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8171.21037322866</v>
+        <v>-379.9501930656552</v>
       </c>
       <c r="C2" t="n">
-        <v>0.05442688546643119</v>
+        <v>0.9243970289971795</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-4560.771694715751</v>
+        <v>-2299.908596342279</v>
       </c>
       <c r="C3" t="n">
-        <v>0.000276863429426361</v>
+        <v>0.335952436350619</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-5214.775483360084</v>
+        <v>704.0526861499411</v>
       </c>
       <c r="C4" t="n">
-        <v>3.540539662152726e-05</v>
+        <v>0.5503403798379722</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-9212.888309580376</v>
+        <v>-1056.06768259099</v>
       </c>
       <c r="C5" t="n">
-        <v>0.003364271519708701</v>
+        <v>0.03083191781340099</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>344.2281077392438</v>
+        <v>990.5966706240624</v>
       </c>
       <c r="C6" t="n">
-        <v>0.08618410333881397</v>
+        <v>0.09681139180336891</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Season[T.Summer]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1716.388432162963</v>
+        <v>170.297343807739</v>
       </c>
       <c r="C7" t="n">
-        <v>5.779463324583883e-05</v>
+        <v>0.7827534596613667</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-29.48691247597542</v>
+        <v>31.54853428528997</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1506933632686174</v>
+        <v>0.9602541803882135</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>242.2030320043953</v>
+        <v>271.4549894839393</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2512746824251021</v>
+        <v>0.165485141042949</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>744.515928650093</v>
+        <v>-1972.738878236359</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0001877019474990592</v>
+        <v>3.394203426597894e-06</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.0198243722641589</v>
+        <v>-33.09500079676697</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9300954850144362</v>
+        <v>0.1036311769842848</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5.315580855817733e-05</v>
+        <v>355.1139053481292</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1067567972598758</v>
+        <v>0.09593810378421853</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>107.6703698788761</v>
+        <v>873.7883624090395</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01751799793738857</v>
+        <v>1.448597520772066e-05</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>29.72348071235145</v>
+        <v>-0.03700922529318178</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2212988839068715</v>
+        <v>0.8719927958277485</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-9667.243599753147</v>
+        <v>0.0002107351928149421</v>
       </c>
       <c r="C15" t="n">
-        <v>0.003343311096153509</v>
+        <v>0.07289194887021871</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-8297.121080711744</v>
+        <v>101.1119540010184</v>
       </c>
       <c r="C16" t="n">
-        <v>0.09340564114902829</v>
+        <v>0.02900820681976467</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>street_length_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>44.03321386894584</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.07072758069435156</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-11167.12276861967</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.002236863042656039</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>-7411.092895176283</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.1461006082139285</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>-2303.230461626036</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.3206999732813237</v>
+      <c r="B20" t="n">
+        <v>-881.1212865340657</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.7068217106044358</v>
       </c>
     </row>
   </sheetData>
@@ -2142,7 +2415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2174,205 +2447,244 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7315.757049310519</v>
+        <v>186.4449310554205</v>
       </c>
       <c r="C2" t="n">
-        <v>0.07897221400677693</v>
+        <v>0.9624860226042778</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-3119.373860437398</v>
+        <v>-3101.916740910754</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01438278430314931</v>
+        <v>0.2394368855191219</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-4241.032187855932</v>
+        <v>734.7209257839014</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0008465711709304138</v>
+        <v>0.5284804401094831</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-9059.407648162187</v>
+        <v>-976.0758816466978</v>
       </c>
       <c r="C5" t="n">
-        <v>0.009993774181578721</v>
+        <v>0.04523830403550039</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>482.5519060289568</v>
+        <v>615.2859469896409</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01400744956893892</v>
+        <v>0.2995921846752328</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Season[T.Summer]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1648.446744781235</v>
+        <v>56.6265518753747</v>
       </c>
       <c r="C7" t="n">
-        <v>9.166653700711903e-05</v>
+        <v>0.9271777049229086</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-35.56537059967933</v>
+        <v>142.3639286435853</v>
       </c>
       <c r="C8" t="n">
-        <v>0.07304908210226964</v>
+        <v>0.8219378393322557</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>125.192599282394</v>
+        <v>359.2267306985063</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5480737852918229</v>
+        <v>0.06405055509682658</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>817.3127435422409</v>
+        <v>-1910.948046093477</v>
       </c>
       <c r="C10" t="n">
-        <v>3.206918988818879e-05</v>
+        <v>7.569215820940635e-06</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.1057989014105026</v>
+        <v>-29.37638230368781</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6437107258796201</v>
+        <v>0.1428212160637385</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2.808756352084534e-05</v>
+        <v>394.2199219410722</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4196199934094742</v>
+        <v>0.06205702033775525</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>107.474627243173</v>
+        <v>807.8528483748307</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01573069473752745</v>
+        <v>5.300481584907108e-05</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>25.2989734411988</v>
+        <v>-0.00512054273780238</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2928063778784526</v>
+        <v>0.9820012193565242</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-10211.66077703992</v>
+        <v>0.0001851638245639747</v>
       </c>
       <c r="C15" t="n">
-        <v>0.001684242126735922</v>
+        <v>0.1139008980452475</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-5572.127399065785</v>
+        <v>96.3986205118093</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2686841112265215</v>
+        <v>0.03749977093788528</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>street_length_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>37.58203427892156</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.1176055803456772</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-10321.31638959795</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.00330938462587107</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>-7410.877632199993</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.1400769690262201</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>-2241.112501491138</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.3323546019012841</v>
+      <c r="B20" t="n">
+        <v>-606.4626745629193</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.7963882049012662</v>
       </c>
     </row>
   </sheetData>
@@ -2386,7 +2698,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2418,205 +2730,244 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8170.415871812591</v>
+        <v>1983.059147996308</v>
       </c>
       <c r="C2" t="n">
-        <v>0.05549236092038205</v>
+        <v>0.6100560379332109</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-5620.891959697865</v>
+        <v>-3352.93496312556</v>
       </c>
       <c r="C3" t="n">
-        <v>3.190637456459683e-05</v>
+        <v>0.1261374523799426</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-6487.052838239391</v>
+        <v>1140.537935993043</v>
       </c>
       <c r="C4" t="n">
-        <v>1.613940994732127e-06</v>
+        <v>0.3115296148003179</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-10470.61821360551</v>
+        <v>-1293.666087759981</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0009846398408079066</v>
+        <v>0.00709258227763781</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>381.6746587160488</v>
+        <v>85.62713215273567</v>
       </c>
       <c r="C6" t="n">
-        <v>0.05373223419378871</v>
+        <v>0.8844493315271553</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Season[T.Summer]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1807.043091229004</v>
+        <v>-441.42313001613</v>
       </c>
       <c r="C7" t="n">
-        <v>2.368080007809204e-05</v>
+        <v>0.4687396117306635</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-24.48963310423427</v>
+        <v>-335.2190470801816</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2356154736512291</v>
+        <v>0.5893444924842917</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>295.9190875676869</v>
+        <v>522.9600146536397</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1650603675866157</v>
+        <v>0.007991983722532355</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>703.1439650681261</v>
+        <v>-1485.783541707172</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0003983940959660806</v>
+        <v>0.0003603440613907803</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.01546375182110214</v>
+        <v>-42.31802489502659</v>
       </c>
       <c r="C11" t="n">
-        <v>0.945807189712659</v>
+        <v>0.03368788638071963</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2.900935431231834e-05</v>
+        <v>364.3037457004467</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3664547199342699</v>
+        <v>0.08166402414743371</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>119.1078874937158</v>
+        <v>887.847898644101</v>
       </c>
       <c r="C13" t="n">
-        <v>0.009434065399105128</v>
+        <v>9.651348705932376e-06</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>41.11081075851925</v>
+        <v>-0.03306932549440245</v>
       </c>
       <c r="C14" t="n">
-        <v>0.09370893073051646</v>
+        <v>0.8845400008254145</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-9026.318575772759</v>
+        <v>0.0001917809965348715</v>
       </c>
       <c r="C15" t="n">
-        <v>0.00702139938673446</v>
+        <v>0.09339257909716771</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-9881.659468092097</v>
+        <v>90.42351068621703</v>
       </c>
       <c r="C16" t="n">
-        <v>0.04919319482429801</v>
+        <v>0.04295274120280176</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>street_length_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>23.73005756026974</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.3159785368678439</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-11735.72571669738</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.0007253149354887275</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>-5532.987990333781</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.2680086523546668</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>-2821.671444517588</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.2181439149743319</v>
+      <c r="B20" t="n">
+        <v>-1094.905194406664</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.6350533597480745</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/dist_commute/Leipzig.xlsx
+++ b/outputs/ML_Results/dist_commute/Leipzig.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ55077076" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ55267027" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ55472550" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ55667129" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ55861763" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ56050671" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ56246027" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ56435032" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ56625575" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ49624810" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ49831157" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ50081078" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ50311838" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ50543483" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ50781992" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ51035712" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ51289763" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ51558686" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2162.979324538224</v>
+        <v>-2370.196656711712</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5832351171227304</v>
+        <v>0.5474207232602026</v>
       </c>
     </row>
     <row r="3">
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1956.57744153977</v>
+        <v>-1948.133220146605</v>
       </c>
       <c r="C3" t="n">
-        <v>0.453089369859632</v>
+        <v>0.455129415370679</v>
       </c>
     </row>
     <row r="4">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>447.8059771910899</v>
+        <v>380.2327161249918</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7014024246142423</v>
+        <v>0.7445358012838152</v>
       </c>
     </row>
     <row r="5">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-977.6163418770144</v>
+        <v>-1051.566019186464</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0440174230489936</v>
+        <v>0.02913167855557969</v>
       </c>
     </row>
     <row r="6">
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>528.7599739931343</v>
+        <v>555.2455518723649</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3761719637963514</v>
+        <v>0.3525362055615674</v>
       </c>
     </row>
     <row r="7">
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-174.7004586806873</v>
+        <v>-145.2883921160807</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7767904245226606</v>
+        <v>0.8135113307807693</v>
       </c>
     </row>
     <row r="8">
@@ -544,10 +544,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-54.17121621971927</v>
+        <v>-56.62205758564673</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9307542619528214</v>
+        <v>0.9276438593932299</v>
       </c>
     </row>
     <row r="9">
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>316.4715990932069</v>
+        <v>303.7491011332552</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1087488647169929</v>
+        <v>0.1232812704532679</v>
       </c>
     </row>
     <row r="10">
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1870.295981595641</v>
+        <v>-1872.492542902365</v>
       </c>
       <c r="C10" t="n">
-        <v>1.039392017342865e-05</v>
+        <v>1.018868904378217e-05</v>
       </c>
     </row>
     <row r="11">
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-33.48475522836647</v>
+        <v>-34.06516922870011</v>
       </c>
       <c r="C11" t="n">
-        <v>0.09530322395215426</v>
+        <v>0.08968515757766118</v>
       </c>
     </row>
     <row r="12">
@@ -596,10 +596,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>249.8812724599509</v>
+        <v>360.699338237715</v>
       </c>
       <c r="C12" t="n">
-        <v>0.238301709462112</v>
+        <v>0.06130733238590095</v>
       </c>
     </row>
     <row r="13">
@@ -609,10 +609,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>882.5302702796218</v>
+        <v>930.8438259970046</v>
       </c>
       <c r="C13" t="n">
-        <v>1.075815875222905e-05</v>
+        <v>2.274216599417413e-06</v>
       </c>
     </row>
     <row r="14">
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.06509053596760833</v>
+        <v>-0.1271933216572807</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7750003448775094</v>
+        <v>0.567271524878578</v>
       </c>
     </row>
     <row r="15">
@@ -635,10 +635,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0001421345314552166</v>
+        <v>0.0001777292289783533</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2183714720688381</v>
+        <v>0.1124882367122305</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>131.3843915843905</v>
+        <v>116.3924019608793</v>
       </c>
       <c r="C16" t="n">
-        <v>0.004614023779743567</v>
+        <v>0.009394266315801359</v>
       </c>
     </row>
     <row r="17">
@@ -661,10 +661,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>54.79714624330452</v>
+        <v>49.58631450131757</v>
       </c>
       <c r="C17" t="n">
-        <v>0.02391706815553074</v>
+        <v>0.0380633534874804</v>
       </c>
     </row>
     <row r="18">
@@ -674,10 +674,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-9796.591316089329</v>
+        <v>-9401.665446000759</v>
       </c>
       <c r="C18" t="n">
-        <v>0.006817555895811732</v>
+        <v>0.009156677547945474</v>
       </c>
     </row>
     <row r="19">
@@ -687,23 +687,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-7253.903041275493</v>
+        <v>-5209.876234467758</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1563244770228284</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>-2947.551234406144</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.2092396367128242</v>
+        <v>0.2828936416669294</v>
       </c>
     </row>
   </sheetData>
@@ -717,7 +704,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -749,10 +736,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1260.970791802835</v>
+        <v>-1343.261131543621</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7578865221717519</v>
+        <v>0.7422256775390714</v>
       </c>
     </row>
     <row r="3">
@@ -762,10 +749,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-2919.47328752046</v>
+        <v>-2902.42284564274</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1969402422814156</v>
+        <v>0.1993513822038718</v>
       </c>
     </row>
     <row r="4">
@@ -775,10 +762,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>283.8702675671981</v>
+        <v>259.2193239730492</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8046733532174313</v>
+        <v>0.8210164648935477</v>
       </c>
     </row>
     <row r="5">
@@ -788,10 +775,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-858.9298786586809</v>
+        <v>-877.678423872125</v>
       </c>
       <c r="C5" t="n">
-        <v>0.08259939220076265</v>
+        <v>0.07465137164615243</v>
       </c>
     </row>
     <row r="6">
@@ -801,10 +788,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>467.5281762131926</v>
+        <v>472.845029150312</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4397520557340604</v>
+        <v>0.4343182268432332</v>
       </c>
     </row>
     <row r="7">
@@ -814,10 +801,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-343.9925670138518</v>
+        <v>-340.2371744690468</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5834767751300796</v>
+        <v>0.5874392619412266</v>
       </c>
     </row>
     <row r="8">
@@ -827,10 +814,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-88.72958042163657</v>
+        <v>-90.43111432616712</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8901041288300461</v>
+        <v>0.887975350172022</v>
       </c>
     </row>
     <row r="9">
@@ -840,10 +827,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>343.7933932933638</v>
+        <v>339.5466412001518</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0841433477841682</v>
+        <v>0.08747294594296104</v>
       </c>
     </row>
     <row r="10">
@@ -853,10 +840,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1795.419211369705</v>
+        <v>-1789.8007093666</v>
       </c>
       <c r="C10" t="n">
-        <v>3.050236359605737e-05</v>
+        <v>3.178857572068522e-05</v>
       </c>
     </row>
     <row r="11">
@@ -866,10 +853,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-31.35565098387175</v>
+        <v>-31.38392443181316</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1291418852034751</v>
+        <v>0.1286830758766626</v>
       </c>
     </row>
     <row r="12">
@@ -879,10 +866,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>337.7536726697313</v>
+        <v>372.4367836492337</v>
       </c>
       <c r="C12" t="n">
-        <v>0.122891310134152</v>
+        <v>0.06259062773747592</v>
       </c>
     </row>
     <row r="13">
@@ -892,10 +879,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>869.4558904419239</v>
+        <v>884.002306459553</v>
       </c>
       <c r="C13" t="n">
-        <v>2.578422094954419e-05</v>
+        <v>1.358215851838553e-05</v>
       </c>
     </row>
     <row r="14">
@@ -905,10 +892,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.05942168754003412</v>
+        <v>-0.07904444385841244</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7970601788892798</v>
+        <v>0.7259000702839048</v>
       </c>
     </row>
     <row r="15">
@@ -918,10 +905,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0001664371736413507</v>
+        <v>0.0001761847808582243</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1568550324286831</v>
+        <v>0.1250058625820067</v>
       </c>
     </row>
     <row r="16">
@@ -931,10 +918,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>102.1695814069161</v>
+        <v>97.88423929377289</v>
       </c>
       <c r="C16" t="n">
-        <v>0.02985446380823706</v>
+        <v>0.03228058848200602</v>
       </c>
     </row>
     <row r="17">
@@ -944,10 +931,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>48.22797437376347</v>
+        <v>46.7011932357758</v>
       </c>
       <c r="C17" t="n">
-        <v>0.05278723838560756</v>
+        <v>0.05748554237160847</v>
       </c>
     </row>
     <row r="18">
@@ -957,10 +944,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-10418.08038189263</v>
+        <v>-10290.1843229431</v>
       </c>
       <c r="C18" t="n">
-        <v>0.003702246166738263</v>
+        <v>0.003978833567478383</v>
       </c>
     </row>
     <row r="19">
@@ -970,23 +957,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-5760.74193867565</v>
+        <v>-5153.538233955077</v>
       </c>
       <c r="C19" t="n">
-        <v>0.2650281999081638</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>-917.6322106572363</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.6965875324640458</v>
+        <v>0.2955396635005435</v>
       </c>
     </row>
   </sheetData>
@@ -1000,7 +974,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1032,10 +1006,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>338.0476323535599</v>
+        <v>272.9976906990732</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9331840001284362</v>
+        <v>0.9459648060832421</v>
       </c>
     </row>
     <row r="3">
@@ -1045,10 +1019,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1661.627186258003</v>
+        <v>-1646.390241587728</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4875297234936981</v>
+        <v>0.4913578099181637</v>
       </c>
     </row>
     <row r="4">
@@ -1058,10 +1032,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1049.735055884742</v>
+        <v>1023.965432410975</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3757994117451073</v>
+        <v>0.3868665604220115</v>
       </c>
     </row>
     <row r="5">
@@ -1071,10 +1045,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-887.8651889562018</v>
+        <v>-914.0868061732361</v>
       </c>
       <c r="C5" t="n">
-        <v>0.06556297223801394</v>
+        <v>0.05586261991159393</v>
       </c>
     </row>
     <row r="6">
@@ -1084,10 +1058,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>575.9696846985828</v>
+        <v>580.8635476620593</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3373093737542314</v>
+        <v>0.3329949901501782</v>
       </c>
     </row>
     <row r="7">
@@ -1097,10 +1071,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-180.7007310276472</v>
+        <v>-179.1379110909898</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7699381991882942</v>
+        <v>0.7718057022515979</v>
       </c>
     </row>
     <row r="8">
@@ -1110,10 +1084,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>160.2021921417289</v>
+        <v>154.0479570210254</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7996103821108979</v>
+        <v>0.8070497710015212</v>
       </c>
     </row>
     <row r="9">
@@ -1123,10 +1097,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>385.1525030534422</v>
+        <v>381.8292635622194</v>
       </c>
       <c r="C9" t="n">
-        <v>0.05507464629850244</v>
+        <v>0.05694255894200542</v>
       </c>
     </row>
     <row r="10">
@@ -1136,10 +1110,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1845.660266811134</v>
+        <v>-1844.735498745516</v>
       </c>
       <c r="C10" t="n">
-        <v>1.456812058989902e-05</v>
+        <v>1.462596602966814e-05</v>
       </c>
     </row>
     <row r="11">
@@ -1149,10 +1123,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-37.75700774187823</v>
+        <v>-37.83782335635118</v>
       </c>
       <c r="C11" t="n">
-        <v>0.06459685307064947</v>
+        <v>0.06394049384218498</v>
       </c>
     </row>
     <row r="12">
@@ -1162,10 +1136,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>394.6753590216238</v>
+        <v>430.6756583746339</v>
       </c>
       <c r="C12" t="n">
-        <v>0.06038437407732916</v>
+        <v>0.02499999354119022</v>
       </c>
     </row>
     <row r="13">
@@ -1175,10 +1149,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>859.9064865224678</v>
+        <v>875.162746239552</v>
       </c>
       <c r="C13" t="n">
-        <v>1.972927658032867e-05</v>
+        <v>1.00710849491515e-05</v>
       </c>
     </row>
     <row r="14">
@@ -1188,10 +1162,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.1888809707851697</v>
+        <v>-0.2078667508439921</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4023271623628204</v>
+        <v>0.3468650381086701</v>
       </c>
     </row>
     <row r="15">
@@ -1201,10 +1175,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0001780380192987479</v>
+        <v>0.0001888268662480161</v>
       </c>
       <c r="C15" t="n">
-        <v>0.122617099414513</v>
+        <v>0.09308072030145993</v>
       </c>
     </row>
     <row r="16">
@@ -1214,10 +1188,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>98.42698701800077</v>
+        <v>93.58702865308595</v>
       </c>
       <c r="C16" t="n">
-        <v>0.03416718924394788</v>
+        <v>0.03765369721624659</v>
       </c>
     </row>
     <row r="17">
@@ -1227,10 +1201,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>34.42381352673195</v>
+        <v>32.73776989782232</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1600255009195364</v>
+        <v>0.1755376085054694</v>
       </c>
     </row>
     <row r="18">
@@ -1240,10 +1214,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-10722.74185215208</v>
+        <v>-10601.78445902164</v>
       </c>
       <c r="C18" t="n">
-        <v>0.002898731584378516</v>
+        <v>0.003127257049336606</v>
       </c>
     </row>
     <row r="19">
@@ -1253,23 +1227,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-4050.921476550283</v>
+        <v>-3411.854957921866</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4219660120723648</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>-980.5849755290674</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.6721630751262221</v>
+        <v>0.4782852581166643</v>
       </c>
     </row>
   </sheetData>
@@ -1283,7 +1244,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1315,10 +1276,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>446.7602255796219</v>
+        <v>265.7389343613227</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9129210949848102</v>
+        <v>0.948075440244155</v>
       </c>
     </row>
     <row r="3">
@@ -1328,10 +1289,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-2925.378285784338</v>
+        <v>-2890.282980577511</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1971583492133837</v>
+        <v>0.2024974281747751</v>
       </c>
     </row>
     <row r="4">
@@ -1341,10 +1302,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1123.816604879433</v>
+        <v>1096.751754519812</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3429840553592579</v>
+        <v>0.3545585361263806</v>
       </c>
     </row>
     <row r="5">
@@ -1354,10 +1315,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1048.715443025896</v>
+        <v>-1104.472900050114</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03414740223483834</v>
+        <v>0.02460171110044754</v>
       </c>
     </row>
     <row r="6">
@@ -1367,10 +1328,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>607.9377788870365</v>
+        <v>622.635835059174</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3167704086573179</v>
+        <v>0.3050262209093643</v>
       </c>
     </row>
     <row r="7">
@@ -1380,10 +1341,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-237.7084271848356</v>
+        <v>-217.4227197524503</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7065612598805343</v>
+        <v>0.7304125666278727</v>
       </c>
     </row>
     <row r="8">
@@ -1393,10 +1354,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-281.3715823464201</v>
+        <v>-275.9610794085893</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6596277427467263</v>
+        <v>0.6657425739214524</v>
       </c>
     </row>
     <row r="9">
@@ -1406,10 +1367,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>326.2851501963627</v>
+        <v>316.4037749722578</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1052731450846236</v>
+        <v>0.1156979592745269</v>
       </c>
     </row>
     <row r="10">
@@ -1419,10 +1380,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1852.262754644806</v>
+        <v>-1836.204998375763</v>
       </c>
       <c r="C10" t="n">
-        <v>1.813941544349227e-05</v>
+        <v>2.105803878357304e-05</v>
       </c>
     </row>
     <row r="11">
@@ -1432,10 +1393,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-33.78161651082612</v>
+        <v>-34.29463564753489</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1021698547233887</v>
+        <v>0.09693406206236373</v>
       </c>
     </row>
     <row r="12">
@@ -1445,10 +1406,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>195.5148091386729</v>
+        <v>275.555054531505</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3643809215207743</v>
+        <v>0.1628204465678616</v>
       </c>
     </row>
     <row r="13">
@@ -1458,10 +1419,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>889.3809184776756</v>
+        <v>924.3609564488773</v>
       </c>
       <c r="C13" t="n">
-        <v>1.43809127544995e-05</v>
+        <v>4.511413866964725e-06</v>
       </c>
     </row>
     <row r="14">
@@ -1471,10 +1432,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.1131720591381013</v>
+        <v>-0.1598349174390075</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6255527457715105</v>
+        <v>0.4801123551876193</v>
       </c>
     </row>
     <row r="15">
@@ -1484,10 +1445,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0001567631589791746</v>
+        <v>0.0001816750203945131</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1823063234515749</v>
+        <v>0.1123351529514519</v>
       </c>
     </row>
     <row r="16">
@@ -1497,10 +1458,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>114.4487706693059</v>
+        <v>103.7531539061411</v>
       </c>
       <c r="C16" t="n">
-        <v>0.01564299900255494</v>
+        <v>0.0238072667184453</v>
       </c>
     </row>
     <row r="17">
@@ -1510,10 +1471,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>40.67435139881236</v>
+        <v>37.04429587112941</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1001061003575959</v>
+        <v>0.129266172920082</v>
       </c>
     </row>
     <row r="18">
@@ -1523,10 +1484,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-11319.2153475951</v>
+        <v>-10991.69223471728</v>
       </c>
       <c r="C18" t="n">
-        <v>0.001803648051710673</v>
+        <v>0.002323023622928497</v>
       </c>
     </row>
     <row r="19">
@@ -1536,23 +1497,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-6416.302092866699</v>
+        <v>-4926.077383560409</v>
       </c>
       <c r="C19" t="n">
-        <v>0.2157036036285415</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>-2205.126977085284</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.3550883792032816</v>
+        <v>0.3172045605141231</v>
       </c>
     </row>
   </sheetData>
@@ -1566,7 +1514,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1598,10 +1546,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1472.83694328345</v>
+        <v>-1581.952446272869</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7127400185378311</v>
+        <v>0.6921606604111594</v>
       </c>
     </row>
     <row r="3">
@@ -1611,10 +1559,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-2701.260317082908</v>
+        <v>-2681.027993164302</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2239937929687487</v>
+        <v>0.2273310102365871</v>
       </c>
     </row>
     <row r="4">
@@ -1624,10 +1572,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>973.5421110937771</v>
+        <v>934.743372607812</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3875378803425975</v>
+        <v>0.4058986207674431</v>
       </c>
     </row>
     <row r="5">
@@ -1637,10 +1585,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1172.683272168054</v>
+        <v>-1214.272513033868</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01601320828352553</v>
+        <v>0.01178249834708323</v>
       </c>
     </row>
     <row r="6">
@@ -1650,10 +1598,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>430.8713819013109</v>
+        <v>431.9584855683861</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4700561182445833</v>
+        <v>0.468839978205737</v>
       </c>
     </row>
     <row r="7">
@@ -1663,10 +1611,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>22.51985573657907</v>
+        <v>22.004083639128</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9710777085599394</v>
+        <v>0.9717337800896781</v>
       </c>
     </row>
     <row r="8">
@@ -1676,10 +1624,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-154.8262888645804</v>
+        <v>-157.6078404511878</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8064557634261567</v>
+        <v>0.8030034837249996</v>
       </c>
     </row>
     <row r="9">
@@ -1689,10 +1637,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>467.7785345254968</v>
+        <v>463.8451197072834</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01521674929851043</v>
+        <v>0.01601206879525383</v>
       </c>
     </row>
     <row r="10">
@@ -1702,10 +1650,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1898.844851343635</v>
+        <v>-1896.73239487362</v>
       </c>
       <c r="C10" t="n">
-        <v>7.21069953527011e-06</v>
+        <v>7.342105883456414e-06</v>
       </c>
     </row>
     <row r="11">
@@ -1715,10 +1663,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-19.9479243488081</v>
+        <v>-20.1701510456375</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3185570922315045</v>
+        <v>0.3130159628372312</v>
       </c>
     </row>
     <row r="12">
@@ -1728,10 +1676,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>265.5843901945518</v>
+        <v>319.1879912070917</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2067546007456944</v>
+        <v>0.09573930052292283</v>
       </c>
     </row>
     <row r="13">
@@ -1741,10 +1689,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>825.3651661579548</v>
+        <v>848.5289556634275</v>
       </c>
       <c r="C13" t="n">
-        <v>4.093418386019214e-05</v>
+        <v>1.76517233213514e-05</v>
       </c>
     </row>
     <row r="14">
@@ -1754,10 +1702,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.08944179263883466</v>
+        <v>-0.1234999640761986</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7041775893526314</v>
+        <v>0.5896431337558132</v>
       </c>
     </row>
     <row r="15">
@@ -1767,10 +1715,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.00013285676267865</v>
+        <v>0.000148929559601658</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2445222685619411</v>
+        <v>0.1802369207565474</v>
       </c>
     </row>
     <row r="16">
@@ -1780,10 +1728,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>98.6950545683622</v>
+        <v>91.72648935770431</v>
       </c>
       <c r="C16" t="n">
-        <v>0.03335515186487176</v>
+        <v>0.04140477199888162</v>
       </c>
     </row>
     <row r="17">
@@ -1793,10 +1741,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>49.52954393090396</v>
+        <v>47.01606722906622</v>
       </c>
       <c r="C17" t="n">
-        <v>0.04224668801438331</v>
+        <v>0.05046589455206039</v>
       </c>
     </row>
     <row r="18">
@@ -1806,10 +1754,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-9435.34213194832</v>
+        <v>-9203.426887631558</v>
       </c>
       <c r="C18" t="n">
-        <v>0.006914268626912614</v>
+        <v>0.008033899150457499</v>
       </c>
     </row>
     <row r="19">
@@ -1819,23 +1767,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-5733.060444978331</v>
+        <v>-4696.281969230798</v>
       </c>
       <c r="C19" t="n">
-        <v>0.2681060551240345</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>-1433.414604463182</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.5368649332584043</v>
+        <v>0.3374262977204086</v>
       </c>
     </row>
   </sheetData>
@@ -1849,7 +1784,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1881,10 +1816,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>182.2734595813145</v>
+        <v>-140.1006755107717</v>
       </c>
       <c r="C2" t="n">
-        <v>0.961829049971199</v>
+        <v>0.970631929909649</v>
       </c>
     </row>
     <row r="3">
@@ -1894,10 +1829,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-6110.482078147326</v>
+        <v>-6007.776229494774</v>
       </c>
       <c r="C3" t="n">
-        <v>0.009330363662335759</v>
+        <v>0.01059933138439399</v>
       </c>
     </row>
     <row r="4">
@@ -1907,10 +1842,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1512.821032215799</v>
+        <v>1435.728907246953</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1714067295299627</v>
+        <v>0.1941028746023686</v>
       </c>
     </row>
     <row r="5">
@@ -1920,10 +1855,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1033.394709581032</v>
+        <v>-1140.342484535673</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0290865244279693</v>
+        <v>0.01508591937306559</v>
       </c>
     </row>
     <row r="6">
@@ -1933,10 +1868,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>135.3146736472374</v>
+        <v>166.3142589409333</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8156517426014345</v>
+        <v>0.7744574221049964</v>
       </c>
     </row>
     <row r="7">
@@ -1946,10 +1881,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-373.6506417481567</v>
+        <v>-334.8988854045908</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5354949552188843</v>
+        <v>0.5785410704260434</v>
       </c>
     </row>
     <row r="8">
@@ -1959,10 +1894,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-195.0080573670322</v>
+        <v>-198.9757613900206</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7521867433063866</v>
+        <v>0.7474481268530504</v>
       </c>
     </row>
     <row r="9">
@@ -1972,10 +1907,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>442.5216195920843</v>
+        <v>431.7864151615385</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01945345176820592</v>
+        <v>0.02259039331737558</v>
       </c>
     </row>
     <row r="10">
@@ -1985,10 +1920,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1588.740136133896</v>
+        <v>-1581.217464334894</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0001102556729981034</v>
+        <v>0.0001196903518668867</v>
       </c>
     </row>
     <row r="11">
@@ -1998,10 +1933,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-28.60248786680152</v>
+        <v>-28.41745154666967</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1452626009434535</v>
+        <v>0.1480984798370609</v>
       </c>
     </row>
     <row r="12">
@@ -2011,10 +1946,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>170.0795492665736</v>
+        <v>314.1617986149165</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4186018618151814</v>
+        <v>0.09920935460412611</v>
       </c>
     </row>
     <row r="13">
@@ -2024,10 +1959,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>796.7210449596555</v>
+        <v>852.5310893336951</v>
       </c>
       <c r="C13" t="n">
-        <v>4.893649200414999e-05</v>
+        <v>1.034147947333132e-05</v>
       </c>
     </row>
     <row r="14">
@@ -2037,10 +1972,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.09570885438653125</v>
+        <v>0.01367408006905937</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6634464617519287</v>
+        <v>0.9490748693915425</v>
       </c>
     </row>
     <row r="15">
@@ -2050,10 +1985,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0001541844518303371</v>
+        <v>0.000200351069129002</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1771589224383964</v>
+        <v>0.07030874560463428</v>
       </c>
     </row>
     <row r="16">
@@ -2063,10 +1998,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>104.1533683216869</v>
+        <v>85.19332023891499</v>
       </c>
       <c r="C16" t="n">
-        <v>0.02083758082226005</v>
+        <v>0.05029208921919133</v>
       </c>
     </row>
     <row r="17">
@@ -2076,10 +2011,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>40.76288287419138</v>
+        <v>34.37177103376234</v>
       </c>
       <c r="C17" t="n">
-        <v>0.08310565623859333</v>
+        <v>0.1383920625032153</v>
       </c>
     </row>
     <row r="18">
@@ -2089,10 +2024,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-9353.265819116445</v>
+        <v>-8816.186888007467</v>
       </c>
       <c r="C18" t="n">
-        <v>0.007980688066846649</v>
+        <v>0.01204837293243917</v>
       </c>
     </row>
     <row r="19">
@@ -2102,23 +2037,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-8254.075032635737</v>
+        <v>-5628.929234981841</v>
       </c>
       <c r="C19" t="n">
-        <v>0.09626290472430303</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>-3641.023672379536</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.1066859505206911</v>
+        <v>0.2300391903976736</v>
       </c>
     </row>
   </sheetData>
@@ -2132,7 +2054,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2164,10 +2086,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-379.9501930656552</v>
+        <v>-439.6465063682158</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9243970289971795</v>
+        <v>0.9124687512672643</v>
       </c>
     </row>
     <row r="3">
@@ -2177,10 +2099,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-2299.908596342279</v>
+        <v>-2287.347235030506</v>
       </c>
       <c r="C3" t="n">
-        <v>0.335952436350619</v>
+        <v>0.3384074266395818</v>
       </c>
     </row>
     <row r="4">
@@ -2190,10 +2112,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>704.0526861499411</v>
+        <v>679.3902505933181</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5503403798379722</v>
+        <v>0.5636720713161048</v>
       </c>
     </row>
     <row r="5">
@@ -2203,10 +2125,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1056.06768259099</v>
+        <v>-1081.195942604611</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03083191781340099</v>
+        <v>0.02560831575804482</v>
       </c>
     </row>
     <row r="6">
@@ -2216,10 +2138,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>990.5966706240624</v>
+        <v>991.7197511819395</v>
       </c>
       <c r="C6" t="n">
-        <v>0.09681139180336891</v>
+        <v>0.09633117118524361</v>
       </c>
     </row>
     <row r="7">
@@ -2229,10 +2151,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>170.297343807739</v>
+        <v>169.7417595517378</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7827534596613667</v>
+        <v>0.7833813785525141</v>
       </c>
     </row>
     <row r="8">
@@ -2242,10 +2164,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>31.54853428528997</v>
+        <v>21.556123796782</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9602541803882135</v>
+        <v>0.9728049447499192</v>
       </c>
     </row>
     <row r="9">
@@ -2255,10 +2177,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>271.4549894839393</v>
+        <v>267.1785572005557</v>
       </c>
       <c r="C9" t="n">
-        <v>0.165485141042949</v>
+        <v>0.1713943426476446</v>
       </c>
     </row>
     <row r="10">
@@ -2268,10 +2190,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1972.738878236359</v>
+        <v>-1970.460313581212</v>
       </c>
       <c r="C10" t="n">
-        <v>3.394203426597894e-06</v>
+        <v>3.451855508602863e-06</v>
       </c>
     </row>
     <row r="11">
@@ -2281,10 +2203,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-33.09500079676697</v>
+        <v>-33.18408251160849</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1036311769842848</v>
+        <v>0.1025806003323305</v>
       </c>
     </row>
     <row r="12">
@@ -2294,10 +2216,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>355.1139053481292</v>
+        <v>387.5228678178134</v>
       </c>
       <c r="C12" t="n">
-        <v>0.09593810378421853</v>
+        <v>0.04698431513261414</v>
       </c>
     </row>
     <row r="13">
@@ -2307,10 +2229,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>873.7883624090395</v>
+        <v>888.4037348631311</v>
       </c>
       <c r="C13" t="n">
-        <v>1.448597520772066e-05</v>
+        <v>6.988090340481839e-06</v>
       </c>
     </row>
     <row r="14">
@@ -2320,10 +2242,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.03700922529318178</v>
+        <v>-0.0561673122838196</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8719927958277485</v>
+        <v>0.8019277889009671</v>
       </c>
     </row>
     <row r="15">
@@ -2333,10 +2255,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0002107351928149421</v>
+        <v>0.000221189968061772</v>
       </c>
       <c r="C15" t="n">
-        <v>0.07289194887021871</v>
+        <v>0.05263151051642569</v>
       </c>
     </row>
     <row r="16">
@@ -2346,10 +2268,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>101.1119540010184</v>
+        <v>96.87537706262336</v>
       </c>
       <c r="C16" t="n">
-        <v>0.02900820681976467</v>
+        <v>0.03097096853683156</v>
       </c>
     </row>
     <row r="17">
@@ -2359,10 +2281,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>44.03321386894584</v>
+        <v>42.52749919390091</v>
       </c>
       <c r="C17" t="n">
-        <v>0.07072758069435156</v>
+        <v>0.07671669151680174</v>
       </c>
     </row>
     <row r="18">
@@ -2372,10 +2294,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-11167.12276861967</v>
+        <v>-11072.03556604121</v>
       </c>
       <c r="C18" t="n">
-        <v>0.002236863042656039</v>
+        <v>0.002373066602448304</v>
       </c>
     </row>
     <row r="19">
@@ -2385,23 +2307,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-7411.092895176283</v>
+        <v>-6817.07538995384</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1461006082139285</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>-881.1212865340657</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.7068217106044358</v>
+        <v>0.1595488962943546</v>
       </c>
     </row>
   </sheetData>
@@ -2415,7 +2324,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2447,10 +2356,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>186.4449310554205</v>
+        <v>128.9928662007487</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9624860226042778</v>
+        <v>0.9739913712678349</v>
       </c>
     </row>
     <row r="3">
@@ -2460,10 +2369,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-3101.916740910754</v>
+        <v>-3087.593085350081</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2394368855191219</v>
+        <v>0.2413567035790543</v>
       </c>
     </row>
     <row r="4">
@@ -2473,10 +2382,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>734.7209257839014</v>
+        <v>717.6194134739299</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5284804401094831</v>
+        <v>0.5373311312444704</v>
       </c>
     </row>
     <row r="5">
@@ -2486,10 +2395,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-976.0758816466978</v>
+        <v>-991.6243197703773</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04523830403550039</v>
+        <v>0.04029922437630962</v>
       </c>
     </row>
     <row r="6">
@@ -2499,10 +2408,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>615.2859469896409</v>
+        <v>616.5176828566222</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2995921846752328</v>
+        <v>0.2984549442685798</v>
       </c>
     </row>
     <row r="7">
@@ -2512,10 +2421,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>56.6265518753747</v>
+        <v>56.86131095727123</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9271777049229086</v>
+        <v>0.9268530962112083</v>
       </c>
     </row>
     <row r="8">
@@ -2525,10 +2434,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>142.3639286435853</v>
+        <v>137.0782497114076</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8219378393322557</v>
+        <v>0.828300972528743</v>
       </c>
     </row>
     <row r="9">
@@ -2538,10 +2447,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>359.2267306985063</v>
+        <v>356.9106949345115</v>
       </c>
       <c r="C9" t="n">
-        <v>0.06405055509682658</v>
+        <v>0.06540667403316201</v>
       </c>
     </row>
     <row r="10">
@@ -2551,10 +2460,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1910.948046093477</v>
+        <v>-1908.142779400415</v>
       </c>
       <c r="C10" t="n">
-        <v>7.569215820940635e-06</v>
+        <v>7.699129228255887e-06</v>
       </c>
     </row>
     <row r="11">
@@ -2564,10 +2473,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-29.37638230368781</v>
+        <v>-29.50449638427263</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1428212160637385</v>
+        <v>0.1408381601629511</v>
       </c>
     </row>
     <row r="12">
@@ -2577,10 +2486,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>394.2199219410722</v>
+        <v>416.0529289800976</v>
       </c>
       <c r="C12" t="n">
-        <v>0.06205702033775525</v>
+        <v>0.03158494728116407</v>
       </c>
     </row>
     <row r="13">
@@ -2590,10 +2499,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>807.8528483748307</v>
+        <v>817.6436468968909</v>
       </c>
       <c r="C13" t="n">
-        <v>5.300481584907108e-05</v>
+        <v>3.075793995538728e-05</v>
       </c>
     </row>
     <row r="14">
@@ -2603,10 +2512,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.00512054273780238</v>
+        <v>-0.01737869604063094</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9820012193565242</v>
+        <v>0.9375684170672394</v>
       </c>
     </row>
     <row r="15">
@@ -2616,10 +2525,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0001851638245639747</v>
+        <v>0.0001916366257789721</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1139008980452475</v>
+        <v>0.09383244092061818</v>
       </c>
     </row>
     <row r="16">
@@ -2629,10 +2538,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>96.3986205118093</v>
+        <v>93.67239026995641</v>
       </c>
       <c r="C16" t="n">
-        <v>0.03749977093788528</v>
+        <v>0.0378112563244607</v>
       </c>
     </row>
     <row r="17">
@@ -2642,10 +2551,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>37.58203427892156</v>
+        <v>36.67340110843991</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1176055803456772</v>
+        <v>0.1225197061094558</v>
       </c>
     </row>
     <row r="18">
@@ -2655,10 +2564,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-10321.31638959795</v>
+        <v>-10246.09595280304</v>
       </c>
       <c r="C18" t="n">
-        <v>0.00330938462587107</v>
+        <v>0.003421141939094415</v>
       </c>
     </row>
     <row r="19">
@@ -2668,23 +2577,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-7410.877632199993</v>
+        <v>-7022.992897918611</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1400769690262201</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>-606.4626745629193</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.7963882049012662</v>
+        <v>0.142651463064938</v>
       </c>
     </row>
   </sheetData>
@@ -2698,7 +2594,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2730,10 +2626,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1983.059147996308</v>
+        <v>1891.719551555094</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6100560379332109</v>
+        <v>0.6260937944242893</v>
       </c>
     </row>
     <row r="3">
@@ -2743,10 +2639,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-3352.93496312556</v>
+        <v>-3335.502069828824</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1261374523799426</v>
+        <v>0.1279623080990577</v>
       </c>
     </row>
     <row r="4">
@@ -2756,10 +2652,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1140.537935993043</v>
+        <v>1116.043666158356</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3115296148003179</v>
+        <v>0.3213948174159168</v>
       </c>
     </row>
     <row r="5">
@@ -2769,10 +2665,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1293.666087759981</v>
+        <v>-1320.640663949327</v>
       </c>
       <c r="C5" t="n">
-        <v>0.00709258227763781</v>
+        <v>0.005629242255501912</v>
       </c>
     </row>
     <row r="6">
@@ -2782,10 +2678,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>85.62713215273567</v>
+        <v>87.89854099582089</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8844493315271553</v>
+        <v>0.8813712184133412</v>
       </c>
     </row>
     <row r="7">
@@ -2795,10 +2691,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-441.42313001613</v>
+        <v>-441.6384177220943</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4687396117306635</v>
+        <v>0.4684038861353488</v>
       </c>
     </row>
     <row r="8">
@@ -2808,10 +2704,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-335.2190470801816</v>
+        <v>-346.7564813949074</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5893444924842917</v>
+        <v>0.5762027638953123</v>
       </c>
     </row>
     <row r="9">
@@ -2821,10 +2717,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>522.9600146536397</v>
+        <v>519.9714377734556</v>
       </c>
       <c r="C9" t="n">
-        <v>0.007991983722532355</v>
+        <v>0.008306806669001821</v>
       </c>
     </row>
     <row r="10">
@@ -2834,10 +2730,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1485.783541707172</v>
+        <v>-1481.188545824369</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0003603440613907803</v>
+        <v>0.0003730199874559342</v>
       </c>
     </row>
     <row r="11">
@@ -2847,10 +2743,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-42.31802489502659</v>
+        <v>-42.61433492760339</v>
       </c>
       <c r="C11" t="n">
-        <v>0.03368788638071963</v>
+        <v>0.03233396250456529</v>
       </c>
     </row>
     <row r="12">
@@ -2860,10 +2756,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>364.3037457004467</v>
+        <v>404.5337856437039</v>
       </c>
       <c r="C12" t="n">
-        <v>0.08166402414743371</v>
+        <v>0.03443775100976047</v>
       </c>
     </row>
     <row r="13">
@@ -2873,10 +2769,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>887.847898644101</v>
+        <v>907.4562087231755</v>
       </c>
       <c r="C13" t="n">
-        <v>9.651348705932376e-06</v>
+        <v>3.798869583291368e-06</v>
       </c>
     </row>
     <row r="14">
@@ -2886,10 +2782,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.03306932549440245</v>
+        <v>-0.05924426387591095</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8845400008254145</v>
+        <v>0.7885391912043255</v>
       </c>
     </row>
     <row r="15">
@@ -2899,10 +2795,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0001917809965348715</v>
+        <v>0.0002041619899057409</v>
       </c>
       <c r="C15" t="n">
-        <v>0.09339257909716771</v>
+        <v>0.06652806158505964</v>
       </c>
     </row>
     <row r="16">
@@ -2912,10 +2808,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>90.42351068621703</v>
+        <v>85.49111072683439</v>
       </c>
       <c r="C16" t="n">
-        <v>0.04295274120280176</v>
+        <v>0.049019875229614</v>
       </c>
     </row>
     <row r="17">
@@ -2925,10 +2821,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>23.73005756026974</v>
+        <v>21.79477975639851</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3159785368678439</v>
+        <v>0.3496670491711754</v>
       </c>
     </row>
     <row r="18">
@@ -2938,10 +2834,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-11735.72571669738</v>
+        <v>-11573.8525969286</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0007253149354887275</v>
+        <v>0.0008067136758580836</v>
       </c>
     </row>
     <row r="19">
@@ -2951,23 +2847,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-5532.987990333781</v>
+        <v>-4764.823688148915</v>
       </c>
       <c r="C19" t="n">
-        <v>0.2680086523546668</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>-1094.905194406664</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.6350533597480745</v>
+        <v>0.3131683472189056</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/dist_commute/Leipzig.xlsx
+++ b/outputs/ML_Results/dist_commute/Leipzig.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ49624810" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ49831157" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ50081078" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ50311838" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ50543483" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ50781992" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ51035712" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ51289763" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ51558686" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ17839566" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ18076052" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ18326490" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ18578178" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ18830578" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ19102323" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ19365234" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ19621403" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ19876324" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2370.196656711712</v>
+        <v>-209.6709145713091</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5474207232602026</v>
+        <v>0.9634603909264408</v>
       </c>
     </row>
     <row r="3">
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1948.133220146605</v>
+        <v>-2927.687473007248</v>
       </c>
       <c r="C3" t="n">
-        <v>0.455129415370679</v>
+        <v>0.3417951822577336</v>
       </c>
     </row>
     <row r="4">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>380.2327161249918</v>
+        <v>-232.8526494069865</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7445358012838152</v>
+        <v>0.8568341414603533</v>
       </c>
     </row>
     <row r="5">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1051.566019186464</v>
+        <v>-612.1299442615842</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02913167855557969</v>
+        <v>0.2622499857461164</v>
       </c>
     </row>
     <row r="6">
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>555.2455518723649</v>
+        <v>-150.1552367017604</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3525362055615674</v>
+        <v>0.8246556542804688</v>
       </c>
     </row>
     <row r="7">
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-145.2883921160807</v>
+        <v>-549.1203227395513</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8135113307807693</v>
+        <v>0.4341312691583007</v>
       </c>
     </row>
     <row r="8">
@@ -544,10 +544,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-56.62205758564673</v>
+        <v>-396.3107619933548</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9276438593932299</v>
+        <v>0.5824514845083753</v>
       </c>
     </row>
     <row r="9">
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>303.7491011332552</v>
+        <v>468.4040461877679</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1232812704532679</v>
+        <v>0.03480431581359525</v>
       </c>
     </row>
     <row r="10">
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1872.492542902365</v>
+        <v>-2540.87133163113</v>
       </c>
       <c r="C10" t="n">
-        <v>1.018868904378217e-05</v>
+        <v>1.453110959202298e-07</v>
       </c>
     </row>
     <row r="11">
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-34.06516922870011</v>
+        <v>-58.99774164253155</v>
       </c>
       <c r="C11" t="n">
-        <v>0.08968515757766118</v>
+        <v>0.01015771453605957</v>
       </c>
     </row>
     <row r="12">
@@ -596,10 +596,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>360.699338237715</v>
+        <v>363.9483479733041</v>
       </c>
       <c r="C12" t="n">
-        <v>0.06130733238590095</v>
+        <v>0.1019049173476929</v>
       </c>
     </row>
     <row r="13">
@@ -609,10 +609,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>930.8438259970046</v>
+        <v>611.5430772091414</v>
       </c>
       <c r="C13" t="n">
-        <v>2.274216599417413e-06</v>
+        <v>0.006170357638518831</v>
       </c>
     </row>
     <row r="14">
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.1271933216572807</v>
+        <v>-0.1398177596512971</v>
       </c>
       <c r="C14" t="n">
-        <v>0.567271524878578</v>
+        <v>0.5509667342144609</v>
       </c>
     </row>
     <row r="15">
@@ -635,10 +635,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0001777292289783533</v>
+        <v>0.0002687139421799191</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1124882367122305</v>
+        <v>0.03375570484674032</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>116.3924019608793</v>
+        <v>89.61168510283667</v>
       </c>
       <c r="C16" t="n">
-        <v>0.009394266315801359</v>
+        <v>0.08326520424517954</v>
       </c>
     </row>
     <row r="17">
@@ -661,10 +661,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>49.58631450131757</v>
+        <v>76.528189262572</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0380633534874804</v>
+        <v>0.005787192745966905</v>
       </c>
     </row>
     <row r="18">
@@ -674,10 +674,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-9401.665446000759</v>
+        <v>-11810.54211395583</v>
       </c>
       <c r="C18" t="n">
-        <v>0.009156677547945474</v>
+        <v>0.004703492433216445</v>
       </c>
     </row>
     <row r="19">
@@ -687,10 +687,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-5209.876234467758</v>
+        <v>-5721.824301358717</v>
       </c>
       <c r="C19" t="n">
-        <v>0.2828936416669294</v>
+        <v>0.3185449133725131</v>
       </c>
     </row>
   </sheetData>
@@ -736,10 +736,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1343.261131543621</v>
+        <v>-2525.239870188796</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7422256775390714</v>
+        <v>0.5796565685113345</v>
       </c>
     </row>
     <row r="3">
@@ -749,10 +749,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-2902.42284564274</v>
+        <v>-4484.201128028328</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1993513822038718</v>
+        <v>0.08941777562621933</v>
       </c>
     </row>
     <row r="4">
@@ -762,10 +762,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>259.2193239730492</v>
+        <v>-177.2396576953872</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8210164648935477</v>
+        <v>0.8937164291373769</v>
       </c>
     </row>
     <row r="5">
@@ -775,10 +775,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-877.678423872125</v>
+        <v>-580.1784597317474</v>
       </c>
       <c r="C5" t="n">
-        <v>0.07465137164615243</v>
+        <v>0.2875933866109966</v>
       </c>
     </row>
     <row r="6">
@@ -788,10 +788,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>472.845029150312</v>
+        <v>-249.4740205734954</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4343182268432332</v>
+        <v>0.7111350361632045</v>
       </c>
     </row>
     <row r="7">
@@ -801,10 +801,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-340.2371744690468</v>
+        <v>-1240.998270394845</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5874392619412266</v>
+        <v>0.07697617824654301</v>
       </c>
     </row>
     <row r="8">
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-90.43111432616712</v>
+        <v>-434.7828585230435</v>
       </c>
       <c r="C8" t="n">
-        <v>0.887975350172022</v>
+        <v>0.5454681723096531</v>
       </c>
     </row>
     <row r="9">
@@ -827,10 +827,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>339.5466412001518</v>
+        <v>728.9960942675275</v>
       </c>
       <c r="C9" t="n">
-        <v>0.08747294594296104</v>
+        <v>0.00119151819507352</v>
       </c>
     </row>
     <row r="10">
@@ -840,10 +840,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1789.8007093666</v>
+        <v>-2343.177512161518</v>
       </c>
       <c r="C10" t="n">
-        <v>3.178857572068522e-05</v>
+        <v>1.176498951133584e-06</v>
       </c>
     </row>
     <row r="11">
@@ -853,10 +853,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-31.38392443181316</v>
+        <v>-43.02466022161779</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1286830758766626</v>
+        <v>0.05949281518390079</v>
       </c>
     </row>
     <row r="12">
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>372.4367836492337</v>
+        <v>473.1711395331836</v>
       </c>
       <c r="C12" t="n">
-        <v>0.06259062773747592</v>
+        <v>0.03599405820326785</v>
       </c>
     </row>
     <row r="13">
@@ -879,10 +879,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>884.002306459553</v>
+        <v>810.1511519622611</v>
       </c>
       <c r="C13" t="n">
-        <v>1.358215851838553e-05</v>
+        <v>0.0003658329239768761</v>
       </c>
     </row>
     <row r="14">
@@ -892,10 +892,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.07904444385841244</v>
+        <v>-0.01614855038883922</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7259000702839048</v>
+        <v>0.9430532114048336</v>
       </c>
     </row>
     <row r="15">
@@ -905,10 +905,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0001761847808582243</v>
+        <v>0.0002873519039278977</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1250058625820067</v>
+        <v>0.02491634535830774</v>
       </c>
     </row>
     <row r="16">
@@ -918,10 +918,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.88423929377289</v>
+        <v>119.6780822753733</v>
       </c>
       <c r="C16" t="n">
-        <v>0.03228058848200602</v>
+        <v>0.02032200013180185</v>
       </c>
     </row>
     <row r="17">
@@ -931,10 +931,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>46.7011932357758</v>
+        <v>63.64333751539323</v>
       </c>
       <c r="C17" t="n">
-        <v>0.05748554237160847</v>
+        <v>0.01873381636138226</v>
       </c>
     </row>
     <row r="18">
@@ -944,10 +944,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-10290.1843229431</v>
+        <v>-12343.61422952817</v>
       </c>
       <c r="C18" t="n">
-        <v>0.003978833567478383</v>
+        <v>0.003169543573120601</v>
       </c>
     </row>
     <row r="19">
@@ -957,10 +957,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-5153.538233955077</v>
+        <v>-7044.330284636451</v>
       </c>
       <c r="C19" t="n">
-        <v>0.2955396635005435</v>
+        <v>0.206265285298672</v>
       </c>
     </row>
   </sheetData>
@@ -1006,10 +1006,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>272.9976906990732</v>
+        <v>-2577.433768960572</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9459648060832421</v>
+        <v>0.5590699765954801</v>
       </c>
     </row>
     <row r="3">
@@ -1019,10 +1019,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1646.390241587728</v>
+        <v>-6918.139041370227</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4913578099181637</v>
+        <v>0.02332833124700882</v>
       </c>
     </row>
     <row r="4">
@@ -1032,10 +1032,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1023.965432410975</v>
+        <v>2128.925854339016</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3868665604220115</v>
+        <v>0.1007568418874813</v>
       </c>
     </row>
     <row r="5">
@@ -1045,10 +1045,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-914.0868061732361</v>
+        <v>-904.3493966299442</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05586261991159393</v>
+        <v>0.09077599365356509</v>
       </c>
     </row>
     <row r="6">
@@ -1058,10 +1058,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>580.8635476620593</v>
+        <v>364.0870761158321</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3329949901501782</v>
+        <v>0.5779381875649715</v>
       </c>
     </row>
     <row r="7">
@@ -1071,10 +1071,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-179.1379110909898</v>
+        <v>-12.27363898728943</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7718057022515979</v>
+        <v>0.9857800688965752</v>
       </c>
     </row>
     <row r="8">
@@ -1084,10 +1084,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>154.0479570210254</v>
+        <v>-311.3619326254636</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8070497710015212</v>
+        <v>0.6584059087232259</v>
       </c>
     </row>
     <row r="9">
@@ -1097,10 +1097,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>381.8292635622194</v>
+        <v>613.7536513538832</v>
       </c>
       <c r="C9" t="n">
-        <v>0.05694255894200542</v>
+        <v>0.005387125995086627</v>
       </c>
     </row>
     <row r="10">
@@ -1110,10 +1110,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1844.735498745516</v>
+        <v>-2552.183681638011</v>
       </c>
       <c r="C10" t="n">
-        <v>1.462596602966814e-05</v>
+        <v>7.186184854278185e-08</v>
       </c>
     </row>
     <row r="11">
@@ -1123,10 +1123,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-37.83782335635118</v>
+        <v>-55.46328533654421</v>
       </c>
       <c r="C11" t="n">
-        <v>0.06394049384218498</v>
+        <v>0.01320060160584281</v>
       </c>
     </row>
     <row r="12">
@@ -1136,10 +1136,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>430.6756583746339</v>
+        <v>431.8371104863181</v>
       </c>
       <c r="C12" t="n">
-        <v>0.02499999354119022</v>
+        <v>0.04588943159019505</v>
       </c>
     </row>
     <row r="13">
@@ -1149,10 +1149,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>875.162746239552</v>
+        <v>839.0783554781685</v>
       </c>
       <c r="C13" t="n">
-        <v>1.00710849491515e-05</v>
+        <v>0.0001389236240114454</v>
       </c>
     </row>
     <row r="14">
@@ -1162,10 +1162,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.2078667508439921</v>
+        <v>-0.2427691467567496</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3468650381086701</v>
+        <v>0.2763052168700691</v>
       </c>
     </row>
     <row r="15">
@@ -1175,10 +1175,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0001888268662480161</v>
+        <v>0.000421108478424372</v>
       </c>
       <c r="C15" t="n">
-        <v>0.09308072030145993</v>
+        <v>0.0009219584290209332</v>
       </c>
     </row>
     <row r="16">
@@ -1188,10 +1188,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>93.58702865308595</v>
+        <v>101.3367194118436</v>
       </c>
       <c r="C16" t="n">
-        <v>0.03765369721624659</v>
+        <v>0.04258566663099097</v>
       </c>
     </row>
     <row r="17">
@@ -1201,10 +1201,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>32.73776989782232</v>
+        <v>55.38308503826174</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1755376085054694</v>
+        <v>0.03745270337533522</v>
       </c>
     </row>
     <row r="18">
@@ -1214,10 +1214,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-10601.78445902164</v>
+        <v>-10448.50983988574</v>
       </c>
       <c r="C18" t="n">
-        <v>0.003127257049336606</v>
+        <v>0.009218436747406189</v>
       </c>
     </row>
     <row r="19">
@@ -1227,10 +1227,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-3411.854957921866</v>
+        <v>1246.418887630785</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4782852581166643</v>
+        <v>0.8197845117189473</v>
       </c>
     </row>
   </sheetData>
@@ -1276,10 +1276,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>265.7389343613227</v>
+        <v>-184.3663502403601</v>
       </c>
       <c r="C2" t="n">
-        <v>0.948075440244155</v>
+        <v>0.9677693377081102</v>
       </c>
     </row>
     <row r="3">
@@ -1289,10 +1289,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-2890.282980577511</v>
+        <v>-3601.628096981564</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2024974281747751</v>
+        <v>0.2103754222876916</v>
       </c>
     </row>
     <row r="4">
@@ -1302,10 +1302,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1096.751754519812</v>
+        <v>1234.137813111498</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3545585361263806</v>
+        <v>0.3495333211020378</v>
       </c>
     </row>
     <row r="5">
@@ -1315,10 +1315,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1104.472900050114</v>
+        <v>-840.624653559328</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02460171110044754</v>
+        <v>0.1290211003203079</v>
       </c>
     </row>
     <row r="6">
@@ -1328,10 +1328,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>622.635835059174</v>
+        <v>220.4565542679453</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3050262209093643</v>
+        <v>0.7472316349286978</v>
       </c>
     </row>
     <row r="7">
@@ -1341,10 +1341,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-217.4227197524503</v>
+        <v>-569.4583658119851</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7304125666278727</v>
+        <v>0.4225862496845333</v>
       </c>
     </row>
     <row r="8">
@@ -1354,10 +1354,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-275.9610794085893</v>
+        <v>-438.3513576307755</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6657425739214524</v>
+        <v>0.5479379700135056</v>
       </c>
     </row>
     <row r="9">
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>316.4037749722578</v>
+        <v>701.7593753718148</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1156979592745269</v>
+        <v>0.00179741555001823</v>
       </c>
     </row>
     <row r="10">
@@ -1380,10 +1380,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1836.204998375763</v>
+        <v>-2072.752998091391</v>
       </c>
       <c r="C10" t="n">
-        <v>2.105803878357304e-05</v>
+        <v>2.148529823979703e-05</v>
       </c>
     </row>
     <row r="11">
@@ -1393,10 +1393,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-34.29463564753489</v>
+        <v>-57.84960062309635</v>
       </c>
       <c r="C11" t="n">
-        <v>0.09693406206236373</v>
+        <v>0.01231342152308284</v>
       </c>
     </row>
     <row r="12">
@@ -1406,10 +1406,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>275.555054531505</v>
+        <v>652.4414613155811</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1628204465678616</v>
+        <v>0.004392727205026532</v>
       </c>
     </row>
     <row r="13">
@@ -1419,10 +1419,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>924.3609564488773</v>
+        <v>496.8628249712443</v>
       </c>
       <c r="C13" t="n">
-        <v>4.511413866964725e-06</v>
+        <v>0.0316690473311115</v>
       </c>
     </row>
     <row r="14">
@@ -1432,10 +1432,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.1598349174390075</v>
+        <v>-0.00874098079232484</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4801123551876193</v>
+        <v>0.9700168539135263</v>
       </c>
     </row>
     <row r="15">
@@ -1445,10 +1445,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0001816750203945131</v>
+        <v>0.00026168840598463</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1123351529514519</v>
+        <v>0.04680606063177904</v>
       </c>
     </row>
     <row r="16">
@@ -1458,10 +1458,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>103.7531539061411</v>
+        <v>74.51971739197447</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0238072667184453</v>
+        <v>0.149864459159477</v>
       </c>
     </row>
     <row r="17">
@@ -1471,10 +1471,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>37.04429587112941</v>
+        <v>65.6008048959571</v>
       </c>
       <c r="C17" t="n">
-        <v>0.129266172920082</v>
+        <v>0.01599730655547512</v>
       </c>
     </row>
     <row r="18">
@@ -1484,10 +1484,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-10991.69223471728</v>
+        <v>-11734.455297598</v>
       </c>
       <c r="C18" t="n">
-        <v>0.002323023622928497</v>
+        <v>0.004593557224822066</v>
       </c>
     </row>
     <row r="19">
@@ -1497,10 +1497,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-4926.077383560409</v>
+        <v>-5266.780990232918</v>
       </c>
       <c r="C19" t="n">
-        <v>0.3172045605141231</v>
+        <v>0.3554081120658222</v>
       </c>
     </row>
   </sheetData>
@@ -1546,10 +1546,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1581.952446272869</v>
+        <v>-1979.234076355772</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6921606604111594</v>
+        <v>0.6697071961699188</v>
       </c>
     </row>
     <row r="3">
@@ -1559,10 +1559,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-2681.027993164302</v>
+        <v>-4363.776082784381</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2273310102365871</v>
+        <v>0.101264941939214</v>
       </c>
     </row>
     <row r="4">
@@ -1572,10 +1572,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>934.743372607812</v>
+        <v>1031.651440464886</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4058986207674431</v>
+        <v>0.4440532149766588</v>
       </c>
     </row>
     <row r="5">
@@ -1585,10 +1585,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1214.272513033868</v>
+        <v>-748.2659544804397</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01178249834708323</v>
+        <v>0.1785321860089104</v>
       </c>
     </row>
     <row r="6">
@@ -1598,10 +1598,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>431.9584855683861</v>
+        <v>-260.7598631761309</v>
       </c>
       <c r="C6" t="n">
-        <v>0.468839978205737</v>
+        <v>0.7026744405000717</v>
       </c>
     </row>
     <row r="7">
@@ -1611,10 +1611,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>22.004083639128</v>
+        <v>-975.1190973530365</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9717337800896781</v>
+        <v>0.1657247608184575</v>
       </c>
     </row>
     <row r="8">
@@ -1624,10 +1624,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-157.6078404511878</v>
+        <v>-508.5577373626621</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8030034837249996</v>
+        <v>0.482463253247014</v>
       </c>
     </row>
     <row r="9">
@@ -1637,10 +1637,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>463.8451197072834</v>
+        <v>750.6099424308255</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01601206879525383</v>
+        <v>0.001095543128529544</v>
       </c>
     </row>
     <row r="10">
@@ -1650,10 +1650,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1896.73239487362</v>
+        <v>-1884.8454104263</v>
       </c>
       <c r="C10" t="n">
-        <v>7.342105883456414e-06</v>
+        <v>0.0001035753805465819</v>
       </c>
     </row>
     <row r="11">
@@ -1663,10 +1663,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-20.1701510456375</v>
+        <v>-68.88902932556407</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3130159628372312</v>
+        <v>0.002877321255930939</v>
       </c>
     </row>
     <row r="12">
@@ -1676,10 +1676,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>319.1879912070917</v>
+        <v>468.5091240988104</v>
       </c>
       <c r="C12" t="n">
-        <v>0.09573930052292283</v>
+        <v>0.0366362264044597</v>
       </c>
     </row>
     <row r="13">
@@ -1689,10 +1689,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>848.5289556634275</v>
+        <v>825.1654231413195</v>
       </c>
       <c r="C13" t="n">
-        <v>1.76517233213514e-05</v>
+        <v>0.0002762921353815692</v>
       </c>
     </row>
     <row r="14">
@@ -1702,10 +1702,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.1234999640761986</v>
+        <v>-0.07325500338855581</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5896431337558132</v>
+        <v>0.7509532456160202</v>
       </c>
     </row>
     <row r="15">
@@ -1715,10 +1715,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.000148929559601658</v>
+        <v>0.0003543689978024159</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1802369207565474</v>
+        <v>0.005309615208820053</v>
       </c>
     </row>
     <row r="16">
@@ -1728,10 +1728,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>91.72648935770431</v>
+        <v>95.61825442395048</v>
       </c>
       <c r="C16" t="n">
-        <v>0.04140477199888162</v>
+        <v>0.06430070898819035</v>
       </c>
     </row>
     <row r="17">
@@ -1741,10 +1741,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>47.01606722906622</v>
+        <v>66.27479450715938</v>
       </c>
       <c r="C17" t="n">
-        <v>0.05046589455206039</v>
+        <v>0.01605858000796306</v>
       </c>
     </row>
     <row r="18">
@@ -1754,10 +1754,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-9203.426887631558</v>
+        <v>-13796.86627245235</v>
       </c>
       <c r="C18" t="n">
-        <v>0.008033899150457499</v>
+        <v>0.0008002437584587592</v>
       </c>
     </row>
     <row r="19">
@@ -1767,10 +1767,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-4696.281969230798</v>
+        <v>-3192.570303420334</v>
       </c>
       <c r="C19" t="n">
-        <v>0.3374262977204086</v>
+        <v>0.5751450194778457</v>
       </c>
     </row>
   </sheetData>
@@ -1816,10 +1816,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-140.1006755107717</v>
+        <v>-1695.335077183059</v>
       </c>
       <c r="C2" t="n">
-        <v>0.970631929909649</v>
+        <v>0.7129619100640738</v>
       </c>
     </row>
     <row r="3">
@@ -1829,10 +1829,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-6007.776229494774</v>
+        <v>-3860.696366165331</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01059933138439399</v>
+        <v>0.1525669522490765</v>
       </c>
     </row>
     <row r="4">
@@ -1842,10 +1842,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1435.728907246953</v>
+        <v>1228.516229084233</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1941028746023686</v>
+        <v>0.3527722889961408</v>
       </c>
     </row>
     <row r="5">
@@ -1855,10 +1855,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1140.342484535673</v>
+        <v>-275.4402679696838</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01508591937306559</v>
+        <v>0.6244971534612183</v>
       </c>
     </row>
     <row r="6">
@@ -1868,10 +1868,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.3142589409333</v>
+        <v>-29.93495701082162</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7744574221049964</v>
+        <v>0.9654061180459534</v>
       </c>
     </row>
     <row r="7">
@@ -1881,10 +1881,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-334.8988854045908</v>
+        <v>-1067.174382152308</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5785410704260434</v>
+        <v>0.1371133276521708</v>
       </c>
     </row>
     <row r="8">
@@ -1894,10 +1894,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-198.9757613900206</v>
+        <v>-880.0250220345681</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7474481268530504</v>
+        <v>0.2262770987657462</v>
       </c>
     </row>
     <row r="9">
@@ -1907,10 +1907,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>431.7864151615385</v>
+        <v>741.5726703887868</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02259039331737558</v>
+        <v>0.001065501844973021</v>
       </c>
     </row>
     <row r="10">
@@ -1920,10 +1920,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1581.217464334894</v>
+        <v>-2690.91825075138</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0001196903518668867</v>
+        <v>4.920359537690506e-08</v>
       </c>
     </row>
     <row r="11">
@@ -1933,10 +1933,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-28.41745154666967</v>
+        <v>-38.33732830212701</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1480984798370609</v>
+        <v>0.1063326548576907</v>
       </c>
     </row>
     <row r="12">
@@ -1946,10 +1946,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>314.1617986149165</v>
+        <v>510.2127678518677</v>
       </c>
       <c r="C12" t="n">
-        <v>0.09920935460412611</v>
+        <v>0.02396710849333578</v>
       </c>
     </row>
     <row r="13">
@@ -1959,10 +1959,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>852.5310893336951</v>
+        <v>745.1405194334216</v>
       </c>
       <c r="C13" t="n">
-        <v>1.034147947333132e-05</v>
+        <v>0.001209360447876327</v>
       </c>
     </row>
     <row r="14">
@@ -1972,10 +1972,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.01367408006905937</v>
+        <v>-0.06466431992811209</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9490748693915425</v>
+        <v>0.7828134199514918</v>
       </c>
     </row>
     <row r="15">
@@ -1985,10 +1985,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.000200351069129002</v>
+        <v>0.0001754215555649328</v>
       </c>
       <c r="C15" t="n">
-        <v>0.07030874560463428</v>
+        <v>0.1730737665728136</v>
       </c>
     </row>
     <row r="16">
@@ -1998,10 +1998,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>85.19332023891499</v>
+        <v>97.06193916794061</v>
       </c>
       <c r="C16" t="n">
-        <v>0.05029208921919133</v>
+        <v>0.06106077429690813</v>
       </c>
     </row>
     <row r="17">
@@ -2011,10 +2011,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>34.37177103376234</v>
+        <v>54.53307947418519</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1383920625032153</v>
+        <v>0.04725973872448173</v>
       </c>
     </row>
     <row r="18">
@@ -2024,10 +2024,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-8816.186888007467</v>
+        <v>-8445.365662536222</v>
       </c>
       <c r="C18" t="n">
-        <v>0.01204837293243917</v>
+        <v>0.04123809959744473</v>
       </c>
     </row>
     <row r="19">
@@ -2037,10 +2037,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-5628.929234981841</v>
+        <v>-3001.966016694305</v>
       </c>
       <c r="C19" t="n">
-        <v>0.2300391903976736</v>
+        <v>0.6009981184234572</v>
       </c>
     </row>
   </sheetData>
@@ -2086,10 +2086,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-439.6465063682158</v>
+        <v>-5485.990048898242</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9124687512672643</v>
+        <v>0.2156669488233462</v>
       </c>
     </row>
     <row r="3">
@@ -2099,10 +2099,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-2287.347235030506</v>
+        <v>-3707.817817550572</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3384074266395818</v>
+        <v>0.1522171379407271</v>
       </c>
     </row>
     <row r="4">
@@ -2112,10 +2112,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>679.3902505933181</v>
+        <v>1311.290390943217</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5636720713161048</v>
+        <v>0.3129187206137586</v>
       </c>
     </row>
     <row r="5">
@@ -2125,10 +2125,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1081.195942604611</v>
+        <v>-396.9509069604726</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02560831575804482</v>
+        <v>0.4607044076971785</v>
       </c>
     </row>
     <row r="6">
@@ -2138,10 +2138,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>991.7197511819395</v>
+        <v>-427.627673688118</v>
       </c>
       <c r="C6" t="n">
-        <v>0.09633117118524361</v>
+        <v>0.5254973100670171</v>
       </c>
     </row>
     <row r="7">
@@ -2151,10 +2151,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>169.7417595517378</v>
+        <v>-777.6879540072839</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7833813785525141</v>
+        <v>0.2653033172692598</v>
       </c>
     </row>
     <row r="8">
@@ -2164,10 +2164,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>21.556123796782</v>
+        <v>-1137.134001978286</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9728049447499192</v>
+        <v>0.1072741946763405</v>
       </c>
     </row>
     <row r="9">
@@ -2177,10 +2177,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>267.1785572005557</v>
+        <v>592.2182168045249</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1713943426476446</v>
+        <v>0.006743575949524384</v>
       </c>
     </row>
     <row r="10">
@@ -2190,10 +2190,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1970.460313581212</v>
+        <v>-2543.105531564827</v>
       </c>
       <c r="C10" t="n">
-        <v>3.451855508602863e-06</v>
+        <v>7.238539638687281e-08</v>
       </c>
     </row>
     <row r="11">
@@ -2203,10 +2203,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-33.18408251160849</v>
+        <v>-43.72550846085529</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1025806003323305</v>
+        <v>0.05314011355813646</v>
       </c>
     </row>
     <row r="12">
@@ -2216,10 +2216,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>387.5228678178134</v>
+        <v>353.883574685699</v>
       </c>
       <c r="C12" t="n">
-        <v>0.04698431513261414</v>
+        <v>0.09884925808484141</v>
       </c>
     </row>
     <row r="13">
@@ -2229,10 +2229,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>888.4037348631311</v>
+        <v>960.2977309550047</v>
       </c>
       <c r="C13" t="n">
-        <v>6.988090340481839e-06</v>
+        <v>1.260970589415222e-05</v>
       </c>
     </row>
     <row r="14">
@@ -2242,10 +2242,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.0561673122838196</v>
+        <v>-0.1535708444841582</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8019277889009671</v>
+        <v>0.4859063085573543</v>
       </c>
     </row>
     <row r="15">
@@ -2255,10 +2255,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.000221189968061772</v>
+        <v>0.0001934085406612404</v>
       </c>
       <c r="C15" t="n">
-        <v>0.05263151051642569</v>
+        <v>0.1196782721679818</v>
       </c>
     </row>
     <row r="16">
@@ -2268,10 +2268,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>96.87537706262336</v>
+        <v>140.9617777773327</v>
       </c>
       <c r="C16" t="n">
-        <v>0.03097096853683156</v>
+        <v>0.004454219678192488</v>
       </c>
     </row>
     <row r="17">
@@ -2281,10 +2281,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>42.52749919390091</v>
+        <v>76.66477429882664</v>
       </c>
       <c r="C17" t="n">
-        <v>0.07671669151680174</v>
+        <v>0.003847492880143575</v>
       </c>
     </row>
     <row r="18">
@@ -2294,10 +2294,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-11072.03556604121</v>
+        <v>-8684.654414124729</v>
       </c>
       <c r="C18" t="n">
-        <v>0.002373066602448304</v>
+        <v>0.02820209061524819</v>
       </c>
     </row>
     <row r="19">
@@ -2307,10 +2307,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-6817.07538995384</v>
+        <v>-3486.7815873796</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1595488962943546</v>
+        <v>0.5214353256244901</v>
       </c>
     </row>
   </sheetData>
@@ -2356,10 +2356,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>128.9928662007487</v>
+        <v>-1931.053583298981</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9739913712678349</v>
+        <v>0.6754366783125585</v>
       </c>
     </row>
     <row r="3">
@@ -2369,10 +2369,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-3087.593085350081</v>
+        <v>-3897.497906553559</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2413567035790543</v>
+        <v>0.1773783969267375</v>
       </c>
     </row>
     <row r="4">
@@ -2382,10 +2382,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>717.6194134739299</v>
+        <v>1475.329159371206</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5373311312444704</v>
+        <v>0.2592047088457768</v>
       </c>
     </row>
     <row r="5">
@@ -2395,10 +2395,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-991.6243197703773</v>
+        <v>-306.7591093722963</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04029922437630962</v>
+        <v>0.5828041146157908</v>
       </c>
     </row>
     <row r="6">
@@ -2408,10 +2408,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>616.5176828566222</v>
+        <v>-432.194307335611</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2984549442685798</v>
+        <v>0.5311127624027749</v>
       </c>
     </row>
     <row r="7">
@@ -2421,10 +2421,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>56.86131095727123</v>
+        <v>-1149.293263075496</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9268530962112083</v>
+        <v>0.1055568199809722</v>
       </c>
     </row>
     <row r="8">
@@ -2434,10 +2434,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>137.0782497114076</v>
+        <v>-730.3020746563723</v>
       </c>
       <c r="C8" t="n">
-        <v>0.828300972528743</v>
+        <v>0.31353990874607</v>
       </c>
     </row>
     <row r="9">
@@ -2447,10 +2447,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>356.9106949345115</v>
+        <v>522.3101787612546</v>
       </c>
       <c r="C9" t="n">
-        <v>0.06540667403316201</v>
+        <v>0.01989647519937895</v>
       </c>
     </row>
     <row r="10">
@@ -2460,10 +2460,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1908.142779400415</v>
+        <v>-2147.486689965674</v>
       </c>
       <c r="C10" t="n">
-        <v>7.699129228255887e-06</v>
+        <v>1.15835007746648e-05</v>
       </c>
     </row>
     <row r="11">
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-29.50449638427263</v>
+        <v>-49.71155556720629</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1408381601629511</v>
+        <v>0.03266683359218379</v>
       </c>
     </row>
     <row r="12">
@@ -2486,10 +2486,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>416.0529289800976</v>
+        <v>330.3233474319143</v>
       </c>
       <c r="C12" t="n">
-        <v>0.03158494728116407</v>
+        <v>0.1414654087358098</v>
       </c>
     </row>
     <row r="13">
@@ -2499,10 +2499,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>817.6436468968909</v>
+        <v>893.9262836764813</v>
       </c>
       <c r="C13" t="n">
-        <v>3.075793995538728e-05</v>
+        <v>9.902111985760604e-05</v>
       </c>
     </row>
     <row r="14">
@@ -2512,10 +2512,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.01737869604063094</v>
+        <v>-0.3416151846790855</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9375684170672394</v>
+        <v>0.1388053203433481</v>
       </c>
     </row>
     <row r="15">
@@ -2525,10 +2525,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0001916366257789721</v>
+        <v>0.0003308520584097683</v>
       </c>
       <c r="C15" t="n">
-        <v>0.09383244092061818</v>
+        <v>0.00981254123733012</v>
       </c>
     </row>
     <row r="16">
@@ -2538,10 +2538,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>93.67239026995641</v>
+        <v>102.7910403815683</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0378112563244607</v>
+        <v>0.04806647682750585</v>
       </c>
     </row>
     <row r="17">
@@ -2551,10 +2551,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>36.67340110843991</v>
+        <v>57.50182190546839</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1225197061094558</v>
+        <v>0.03805624478547391</v>
       </c>
     </row>
     <row r="18">
@@ -2564,10 +2564,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-10246.09595280304</v>
+        <v>-10488.84614871349</v>
       </c>
       <c r="C18" t="n">
-        <v>0.003421141939094415</v>
+        <v>0.01029873375409488</v>
       </c>
     </row>
     <row r="19">
@@ -2577,10 +2577,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-7022.992897918611</v>
+        <v>1825.178492907067</v>
       </c>
       <c r="C19" t="n">
-        <v>0.142651463064938</v>
+        <v>0.7491758434824789</v>
       </c>
     </row>
   </sheetData>
@@ -2626,10 +2626,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1891.719551555094</v>
+        <v>1545.07538729409</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6260937944242893</v>
+        <v>0.7335683720477997</v>
       </c>
     </row>
     <row r="3">
@@ -2639,10 +2639,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-3335.502069828824</v>
+        <v>-3603.497957721409</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1279623080990577</v>
+        <v>0.2038663977572621</v>
       </c>
     </row>
     <row r="4">
@@ -2652,10 +2652,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1116.043666158356</v>
+        <v>1546.957763886288</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3213948174159168</v>
+        <v>0.2628439477110079</v>
       </c>
     </row>
     <row r="5">
@@ -2665,10 +2665,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1320.640663949327</v>
+        <v>-835.0378630147716</v>
       </c>
       <c r="C5" t="n">
-        <v>0.005629242255501912</v>
+        <v>0.1301262093514455</v>
       </c>
     </row>
     <row r="6">
@@ -2678,10 +2678,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>87.89854099582089</v>
+        <v>161.8989189448463</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8813712184133412</v>
+        <v>0.8112175679006089</v>
       </c>
     </row>
     <row r="7">
@@ -2691,10 +2691,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-441.6384177220943</v>
+        <v>-650.9375858432405</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4684038861353488</v>
+        <v>0.3543588388576036</v>
       </c>
     </row>
     <row r="8">
@@ -2704,10 +2704,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-346.7564813949074</v>
+        <v>-534.3635814764859</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5762027638953123</v>
+        <v>0.4549248851179207</v>
       </c>
     </row>
     <row r="9">
@@ -2717,10 +2717,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>519.9714377734556</v>
+        <v>702.7223153916829</v>
       </c>
       <c r="C9" t="n">
-        <v>0.008306806669001821</v>
+        <v>0.001816839865621448</v>
       </c>
     </row>
     <row r="10">
@@ -2730,10 +2730,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1481.188545824369</v>
+        <v>-2119.856751902922</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0003730199874559342</v>
+        <v>1.066662696843199e-05</v>
       </c>
     </row>
     <row r="11">
@@ -2743,10 +2743,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-42.61433492760339</v>
+        <v>-59.86800130600946</v>
       </c>
       <c r="C11" t="n">
-        <v>0.03233396250456529</v>
+        <v>0.009494730652052547</v>
       </c>
     </row>
     <row r="12">
@@ -2756,10 +2756,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>404.5337856437039</v>
+        <v>583.4118113227235</v>
       </c>
       <c r="C12" t="n">
-        <v>0.03443775100976047</v>
+        <v>0.009805582727964215</v>
       </c>
     </row>
     <row r="13">
@@ -2769,10 +2769,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>907.4562087231755</v>
+        <v>707.5137018811672</v>
       </c>
       <c r="C13" t="n">
-        <v>3.798869583291368e-06</v>
+        <v>0.00167226754340787</v>
       </c>
     </row>
     <row r="14">
@@ -2782,10 +2782,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.05924426387591095</v>
+        <v>-0.06398707978714062</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7885391912043255</v>
+        <v>0.7768499256886148</v>
       </c>
     </row>
     <row r="15">
@@ -2795,10 +2795,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0002041619899057409</v>
+        <v>0.0003101260240573829</v>
       </c>
       <c r="C15" t="n">
-        <v>0.06652806158505964</v>
+        <v>0.01360809639047256</v>
       </c>
     </row>
     <row r="16">
@@ -2808,10 +2808,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>85.49111072683439</v>
+        <v>53.99512084412515</v>
       </c>
       <c r="C16" t="n">
-        <v>0.049019875229614</v>
+        <v>0.2904370200051995</v>
       </c>
     </row>
     <row r="17">
@@ -2821,10 +2821,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>21.79477975639851</v>
+        <v>43.52066615228539</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3496670491711754</v>
+        <v>0.1074609363873827</v>
       </c>
     </row>
     <row r="18">
@@ -2834,10 +2834,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-11573.8525969286</v>
+        <v>-10661.83583352471</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0008067136758580836</v>
+        <v>0.008533037404195724</v>
       </c>
     </row>
     <row r="19">
@@ -2847,10 +2847,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-4764.823688148915</v>
+        <v>-1873.632150434519</v>
       </c>
       <c r="C19" t="n">
-        <v>0.3131683472189056</v>
+        <v>0.7374993928049413</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/dist_commute/Leipzig.xlsx
+++ b/outputs/ML_Results/dist_commute/Leipzig.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ17839566" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ18076052" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ18326490" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ18578178" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ18830578" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ19102323" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ19365234" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ19621403" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ19876324" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ06142548" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ06386333" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ06647780" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ06884356" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ07135129" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ07408808" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ07653564" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ07902504" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ08172851" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/outputs/ML_Results/dist_commute/Leipzig.xlsx
+++ b/outputs/ML_Results/dist_commute/Leipzig.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ06142548" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ06386333" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ06647780" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ06884356" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ07135129" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ07408808" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ07653564" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ07902504" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ08172851" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ14618609" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ14844268" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ15087260" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ15336966" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ15613926" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ15888285" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ16153600" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ16426640" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ16699115" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-209.6709145713091</v>
+        <v>5881.319669400462</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9634603909264408</v>
+        <v>0.04507954303826634</v>
       </c>
     </row>
     <row r="3">
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-2927.687473007248</v>
+        <v>-2935.607006885891</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3417951822577336</v>
+        <v>0.3407948501685693</v>
       </c>
     </row>
     <row r="4">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-232.8526494069865</v>
+        <v>-145.8469463471445</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8568341414603533</v>
+        <v>0.9100214031222336</v>
       </c>
     </row>
     <row r="5">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-612.1299442615842</v>
+        <v>-603.8790338013009</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2622499857461164</v>
+        <v>0.2690168264273901</v>
       </c>
     </row>
     <row r="6">
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-150.1552367017604</v>
+        <v>-66.11095248320143</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8246556542804688</v>
+        <v>0.9221391159683611</v>
       </c>
     </row>
     <row r="7">
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-549.1203227395513</v>
+        <v>-542.1753102158575</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4341312691583007</v>
+        <v>0.4402460401083653</v>
       </c>
     </row>
     <row r="8">
@@ -544,10 +544,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-396.3107619933548</v>
+        <v>-353.0389516579507</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5824514845083753</v>
+        <v>0.6242993660290641</v>
       </c>
     </row>
     <row r="9">
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>468.4040461877679</v>
+        <v>452.2747512740917</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03480431581359525</v>
+        <v>0.04149408312955589</v>
       </c>
     </row>
     <row r="10">
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2540.87133163113</v>
+        <v>-2540.17901309286</v>
       </c>
       <c r="C10" t="n">
-        <v>1.453110959202298e-07</v>
+        <v>1.490596300698551e-07</v>
       </c>
     </row>
     <row r="11">
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-58.99774164253155</v>
+        <v>-62.53041779084361</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01015771453605957</v>
+        <v>0.006274782327762318</v>
       </c>
     </row>
     <row r="12">
@@ -596,10 +596,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>363.9483479733041</v>
+        <v>474.4827844596898</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1019049173476929</v>
+        <v>0.02616352037263751</v>
       </c>
     </row>
     <row r="13">
@@ -609,10 +609,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>611.5430772091414</v>
+        <v>404.528058547271</v>
       </c>
       <c r="C13" t="n">
-        <v>0.006170357638518831</v>
+        <v>0.03196681584466108</v>
       </c>
     </row>
     <row r="14">
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.1398177596512971</v>
+        <v>-0.09595876641173225</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5509667342144609</v>
+        <v>0.6807679987447448</v>
       </c>
     </row>
     <row r="15">
@@ -635,62 +635,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0002687139421799191</v>
+        <v>0.0003286742434603555</v>
       </c>
       <c r="C15" t="n">
-        <v>0.03375570484674032</v>
+        <v>0.007000817618521988</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>89.61168510283667</v>
+        <v>47.56040053671158</v>
       </c>
       <c r="C16" t="n">
-        <v>0.08326520424517954</v>
+        <v>0.03150899888171603</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>76.528189262572</v>
+        <v>-11280.01688669062</v>
       </c>
       <c r="C17" t="n">
-        <v>0.005787192745966905</v>
+        <v>0.006818650280851212</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-11810.54211395583</v>
+        <v>-2320.031730315684</v>
       </c>
       <c r="C18" t="n">
-        <v>0.004703492433216445</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-5721.824301358717</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.3185449133725131</v>
+        <v>0.6670363070843723</v>
       </c>
     </row>
   </sheetData>
@@ -704,7 +691,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -736,10 +723,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2525.239870188796</v>
+        <v>5616.876987969745</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5796565685113345</v>
+        <v>0.05438377141839603</v>
       </c>
     </row>
     <row r="3">
@@ -749,10 +736,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-4484.201128028328</v>
+        <v>-4410.524439024291</v>
       </c>
       <c r="C3" t="n">
-        <v>0.08941777562621933</v>
+        <v>0.09523379668301285</v>
       </c>
     </row>
     <row r="4">
@@ -762,10 +749,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-177.2396576953872</v>
+        <v>-55.79153101324187</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8937164291373769</v>
+        <v>0.9664745024339678</v>
       </c>
     </row>
     <row r="5">
@@ -775,10 +762,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-580.1784597317474</v>
+        <v>-549.9768907326597</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2875933866109966</v>
+        <v>0.3139478084407274</v>
       </c>
     </row>
     <row r="6">
@@ -788,10 +775,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-249.4740205734954</v>
+        <v>-150.7435322400363</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7111350361632045</v>
+        <v>0.8228256783089779</v>
       </c>
     </row>
     <row r="7">
@@ -801,10 +788,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1240.998270394845</v>
+        <v>-1222.261145399768</v>
       </c>
       <c r="C7" t="n">
-        <v>0.07697617824654301</v>
+        <v>0.08193890445644371</v>
       </c>
     </row>
     <row r="8">
@@ -814,10 +801,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-434.7828585230435</v>
+        <v>-414.0416109909388</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5454681723096531</v>
+        <v>0.5653066946411253</v>
       </c>
     </row>
     <row r="9">
@@ -827,10 +814,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>728.9960942675275</v>
+        <v>705.8602013635059</v>
       </c>
       <c r="C9" t="n">
-        <v>0.00119151819507352</v>
+        <v>0.001706071425684372</v>
       </c>
     </row>
     <row r="10">
@@ -840,10 +827,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2343.177512161518</v>
+        <v>-2342.454662617628</v>
       </c>
       <c r="C10" t="n">
-        <v>1.176498951133584e-06</v>
+        <v>1.225776384979411e-06</v>
       </c>
     </row>
     <row r="11">
@@ -853,10 +840,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-43.02466022161779</v>
+        <v>-47.98156479959624</v>
       </c>
       <c r="C11" t="n">
-        <v>0.05949281518390079</v>
+        <v>0.03505689374528138</v>
       </c>
     </row>
     <row r="12">
@@ -866,10 +853,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>473.1711395331836</v>
+        <v>618.4232374777564</v>
       </c>
       <c r="C12" t="n">
-        <v>0.03599405820326785</v>
+        <v>0.004412458955725393</v>
       </c>
     </row>
     <row r="13">
@@ -879,10 +866,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>810.1511519622611</v>
+        <v>530.5021831470387</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0003658329239768761</v>
+        <v>0.00592865772035019</v>
       </c>
     </row>
     <row r="14">
@@ -892,10 +879,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.01614855038883922</v>
+        <v>0.04588342955744483</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9430532114048336</v>
+        <v>0.8382648977686138</v>
       </c>
     </row>
     <row r="15">
@@ -905,62 +892,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0002873519039278977</v>
+        <v>0.0003729371096987926</v>
       </c>
       <c r="C15" t="n">
-        <v>0.02491634535830774</v>
+        <v>0.002420364930591343</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>119.6780822753733</v>
+        <v>25.49591253903533</v>
       </c>
       <c r="C16" t="n">
-        <v>0.02032200013180185</v>
+        <v>0.2362297382249688</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>63.64333751539323</v>
+        <v>-11525.12523376438</v>
       </c>
       <c r="C17" t="n">
-        <v>0.01873381636138226</v>
+        <v>0.005751018922589626</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-12343.61422952817</v>
+        <v>-2775.809534953789</v>
       </c>
       <c r="C18" t="n">
-        <v>0.003169543573120601</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-7044.330284636451</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.206265285298672</v>
+        <v>0.5982284834936853</v>
       </c>
     </row>
   </sheetData>
@@ -974,7 +948,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1006,10 +980,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2577.433768960572</v>
+        <v>4235.018485278235</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5590699765954801</v>
+        <v>0.1394132213261585</v>
       </c>
     </row>
     <row r="3">
@@ -1019,10 +993,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-6918.139041370227</v>
+        <v>-6766.075245208815</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02332833124700882</v>
+        <v>0.02664080575098676</v>
       </c>
     </row>
     <row r="4">
@@ -1032,10 +1006,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2128.925854339016</v>
+        <v>2221.997127145294</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1007568418874813</v>
+        <v>0.0868461453755331</v>
       </c>
     </row>
     <row r="5">
@@ -1045,10 +1019,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-904.3493966299442</v>
+        <v>-916.8419422180787</v>
       </c>
       <c r="C5" t="n">
-        <v>0.09077599365356509</v>
+        <v>0.08669481160915361</v>
       </c>
     </row>
     <row r="6">
@@ -1058,10 +1032,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>364.0870761158321</v>
+        <v>426.8838867461623</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5779381875649715</v>
+        <v>0.514114555827865</v>
       </c>
     </row>
     <row r="7">
@@ -1071,10 +1045,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-12.27363898728943</v>
+        <v>-23.6349189137734</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9857800688965752</v>
+        <v>0.9726470122432486</v>
       </c>
     </row>
     <row r="8">
@@ -1084,10 +1058,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-311.3619326254636</v>
+        <v>-306.3887848685871</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6584059087232259</v>
+        <v>0.6638307186070966</v>
       </c>
     </row>
     <row r="9">
@@ -1097,10 +1071,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>613.7536513538832</v>
+        <v>608.8426644619029</v>
       </c>
       <c r="C9" t="n">
-        <v>0.005387125995086627</v>
+        <v>0.005812404096118988</v>
       </c>
     </row>
     <row r="10">
@@ -1110,10 +1084,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2552.183681638011</v>
+        <v>-2529.652418610081</v>
       </c>
       <c r="C10" t="n">
-        <v>7.186184854278185e-08</v>
+        <v>9.521734129438067e-08</v>
       </c>
     </row>
     <row r="11">
@@ -1123,10 +1097,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-55.46328533654421</v>
+        <v>-58.98082290789266</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01320060160584281</v>
+        <v>0.008278064933076555</v>
       </c>
     </row>
     <row r="12">
@@ -1136,10 +1110,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>431.8371104863181</v>
+        <v>552.0297634206431</v>
       </c>
       <c r="C12" t="n">
-        <v>0.04588943159019505</v>
+        <v>0.008054593220051191</v>
       </c>
     </row>
     <row r="13">
@@ -1149,10 +1123,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>839.0783554781685</v>
+        <v>603.2298657340793</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0001389236240114454</v>
+        <v>0.001252280443390169</v>
       </c>
     </row>
     <row r="14">
@@ -1162,10 +1136,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.2427691467567496</v>
+        <v>-0.1852494196498948</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2763052168700691</v>
+        <v>0.4027274297511013</v>
       </c>
     </row>
     <row r="15">
@@ -1175,62 +1149,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.000421108478424372</v>
+        <v>0.0004894893810433754</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0009219584290209332</v>
+        <v>6.667680836754579e-05</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>101.3367194118436</v>
+        <v>22.99866990335565</v>
       </c>
       <c r="C16" t="n">
-        <v>0.04258566663099097</v>
+        <v>0.2803052021387216</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>55.38308503826174</v>
+        <v>-9439.540978889723</v>
       </c>
       <c r="C17" t="n">
-        <v>0.03745270337533522</v>
+        <v>0.0178444524178497</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-10448.50983988574</v>
+        <v>4858.366691467445</v>
       </c>
       <c r="C18" t="n">
-        <v>0.009218436747406189</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>1246.418887630785</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.8197845117189473</v>
+        <v>0.3482043381608678</v>
       </c>
     </row>
   </sheetData>
@@ -1244,7 +1205,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1276,10 +1237,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-184.3663502403601</v>
+        <v>4890.913828800487</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9677693377081102</v>
+        <v>0.09186537739520736</v>
       </c>
     </row>
     <row r="3">
@@ -1289,10 +1250,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-3601.628096981564</v>
+        <v>-3620.13066870741</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2103754222876916</v>
+        <v>0.2081920490652465</v>
       </c>
     </row>
     <row r="4">
@@ -1302,10 +1263,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1234.137813111498</v>
+        <v>1294.042311668603</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3495333211020378</v>
+        <v>0.3265700808336959</v>
       </c>
     </row>
     <row r="5">
@@ -1315,10 +1276,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-840.624653559328</v>
+        <v>-835.69064222604</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1290211003203079</v>
+        <v>0.131403758181214</v>
       </c>
     </row>
     <row r="6">
@@ -1328,10 +1289,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>220.4565542679453</v>
+        <v>304.7936947311795</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7472316349286978</v>
+        <v>0.6548245103953785</v>
       </c>
     </row>
     <row r="7">
@@ -1341,10 +1302,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-569.4583658119851</v>
+        <v>-573.1674550742655</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4225862496845333</v>
+        <v>0.4197257358720496</v>
       </c>
     </row>
     <row r="8">
@@ -1354,10 +1315,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-438.3513576307755</v>
+        <v>-408.7617061849184</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5479379700135056</v>
+        <v>0.5752537518791649</v>
       </c>
     </row>
     <row r="9">
@@ -1367,10 +1328,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>701.7593753718148</v>
+        <v>688.9016700146318</v>
       </c>
       <c r="C9" t="n">
-        <v>0.00179741555001823</v>
+        <v>0.002168182910950872</v>
       </c>
     </row>
     <row r="10">
@@ -1380,10 +1341,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2072.752998091391</v>
+        <v>-2061.254668555416</v>
       </c>
       <c r="C10" t="n">
-        <v>2.148529823979703e-05</v>
+        <v>2.39383707748049e-05</v>
       </c>
     </row>
     <row r="11">
@@ -1393,10 +1354,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-57.84960062309635</v>
+        <v>-60.81110033988509</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01231342152308284</v>
+        <v>0.008278916451002472</v>
       </c>
     </row>
     <row r="12">
@@ -1406,10 +1367,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>652.4414613155811</v>
+        <v>737.5999773172566</v>
       </c>
       <c r="C12" t="n">
-        <v>0.004392727205026532</v>
+        <v>0.0008658535816757462</v>
       </c>
     </row>
     <row r="13">
@@ -1419,10 +1380,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>496.8628249712443</v>
+        <v>323.085750291455</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0316690473311115</v>
+        <v>0.1014252861644049</v>
       </c>
     </row>
     <row r="14">
@@ -1432,10 +1393,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.00874098079232484</v>
+        <v>0.02746014985166997</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9700168539135263</v>
+        <v>0.9054839012795396</v>
       </c>
     </row>
     <row r="15">
@@ -1445,62 +1406,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.00026168840598463</v>
+        <v>0.0003146354310283279</v>
       </c>
       <c r="C15" t="n">
-        <v>0.04680606063177904</v>
+        <v>0.01285629084022134</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>74.51971739197447</v>
+        <v>41.93817242088388</v>
       </c>
       <c r="C16" t="n">
-        <v>0.149864459159477</v>
+        <v>0.05337119477051251</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>65.6008048959571</v>
+        <v>-11061.56849520121</v>
       </c>
       <c r="C17" t="n">
-        <v>0.01599730655547512</v>
+        <v>0.007180425407585174</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-11734.455297598</v>
+        <v>-2659.374694764344</v>
       </c>
       <c r="C18" t="n">
-        <v>0.004593557224822066</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-5266.780990232918</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.3554081120658222</v>
+        <v>0.6227161529505023</v>
       </c>
     </row>
   </sheetData>
@@ -1514,7 +1462,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1546,10 +1494,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1979.234076355772</v>
+        <v>4695.277320894529</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6697071961699188</v>
+        <v>0.1082872875566977</v>
       </c>
     </row>
     <row r="3">
@@ -1559,10 +1507,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-4363.776082784381</v>
+        <v>-4325.045080168617</v>
       </c>
       <c r="C3" t="n">
-        <v>0.101264941939214</v>
+        <v>0.1045826498950838</v>
       </c>
     </row>
     <row r="4">
@@ -1572,10 +1520,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1031.651440464886</v>
+        <v>1163.380054466481</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4440532149766588</v>
+        <v>0.3877973971137496</v>
       </c>
     </row>
     <row r="5">
@@ -1585,10 +1533,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-748.2659544804397</v>
+        <v>-731.7681194882442</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1785321860089104</v>
+        <v>0.1885739776924941</v>
       </c>
     </row>
     <row r="6">
@@ -1598,10 +1546,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-260.7598631761309</v>
+        <v>-162.3971821818727</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7026744405000717</v>
+        <v>0.8116727064335587</v>
       </c>
     </row>
     <row r="7">
@@ -1611,10 +1559,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-975.1190973530365</v>
+        <v>-961.1320347412891</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1657247608184575</v>
+        <v>0.1721776738114528</v>
       </c>
     </row>
     <row r="8">
@@ -1624,10 +1572,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-508.5577373626621</v>
+        <v>-477.9379957308266</v>
       </c>
       <c r="C8" t="n">
-        <v>0.482463253247014</v>
+        <v>0.5094249279549805</v>
       </c>
     </row>
     <row r="9">
@@ -1637,10 +1585,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>750.6099424308255</v>
+        <v>724.45448823803</v>
       </c>
       <c r="C9" t="n">
-        <v>0.001095543128529544</v>
+        <v>0.001605328559305103</v>
       </c>
     </row>
     <row r="10">
@@ -1650,10 +1598,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1884.8454104263</v>
+        <v>-1872.811433363087</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0001035753805465819</v>
+        <v>0.0001158182284025583</v>
       </c>
     </row>
     <row r="11">
@@ -1663,10 +1611,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-68.88902932556407</v>
+        <v>-73.44701091099151</v>
       </c>
       <c r="C11" t="n">
-        <v>0.002877321255930939</v>
+        <v>0.001408520723789022</v>
       </c>
     </row>
     <row r="12">
@@ -1676,10 +1624,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>468.5091240988104</v>
+        <v>585.3027252201713</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0366362264044597</v>
+        <v>0.006577299071808335</v>
       </c>
     </row>
     <row r="13">
@@ -1689,10 +1637,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>825.1654231413195</v>
+        <v>596.0872512854446</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0002762921353815692</v>
+        <v>0.001711348673974435</v>
       </c>
     </row>
     <row r="14">
@@ -1702,10 +1650,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.07325500338855581</v>
+        <v>-0.02977957703347985</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7509532456160202</v>
+        <v>0.8968843255539303</v>
       </c>
     </row>
     <row r="15">
@@ -1715,62 +1663,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0003543689978024159</v>
+        <v>0.0004173035910984898</v>
       </c>
       <c r="C15" t="n">
-        <v>0.005309615208820053</v>
+        <v>0.0006677661143620656</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>95.61825442395048</v>
+        <v>34.86003795977431</v>
       </c>
       <c r="C16" t="n">
-        <v>0.06430070898819035</v>
+        <v>0.1076410932556856</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>66.27479450715938</v>
+        <v>-12876.47469080338</v>
       </c>
       <c r="C17" t="n">
-        <v>0.01605858000796306</v>
+        <v>0.00163003308515019</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-13796.86627245235</v>
+        <v>241.0386219244515</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0008002437584587592</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-3192.570303420334</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.5751450194778457</v>
+        <v>0.9643265590136959</v>
       </c>
     </row>
   </sheetData>
@@ -1784,7 +1719,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1816,10 +1751,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1695.335077183059</v>
+        <v>4947.234177306436</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7129619100640738</v>
+        <v>0.09339042593078184</v>
       </c>
     </row>
     <row r="3">
@@ -1829,10 +1764,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-3860.696366165331</v>
+        <v>-3801.665945405604</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1525669522490765</v>
+        <v>0.1592352497921053</v>
       </c>
     </row>
     <row r="4">
@@ -1842,10 +1777,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1228.516229084233</v>
+        <v>1286.885356898497</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3527722889961408</v>
+        <v>0.3306212439812551</v>
       </c>
     </row>
     <row r="5">
@@ -1855,10 +1790,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-275.4402679696838</v>
+        <v>-261.3101729400066</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6244971534612183</v>
+        <v>0.6426099834261483</v>
       </c>
     </row>
     <row r="6">
@@ -1868,10 +1803,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-29.93495701082162</v>
+        <v>49.96801315701902</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9654061180459534</v>
+        <v>0.9422229208373796</v>
       </c>
     </row>
     <row r="7">
@@ -1881,10 +1816,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1067.174382152308</v>
+        <v>-1055.977462329825</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1371133276521708</v>
+        <v>0.1415806918993796</v>
       </c>
     </row>
     <row r="8">
@@ -1894,10 +1829,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-880.0250220345681</v>
+        <v>-859.0193903685384</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2262770987657462</v>
+        <v>0.2378636798386102</v>
       </c>
     </row>
     <row r="9">
@@ -1907,10 +1842,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>741.5726703887868</v>
+        <v>718.3428337875164</v>
       </c>
       <c r="C9" t="n">
-        <v>0.001065501844973021</v>
+        <v>0.001510252446934518</v>
       </c>
     </row>
     <row r="10">
@@ -1920,10 +1855,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2690.91825075138</v>
+        <v>-2694.753478295714</v>
       </c>
       <c r="C10" t="n">
-        <v>4.920359537690506e-08</v>
+        <v>4.824639311866092e-08</v>
       </c>
     </row>
     <row r="11">
@@ -1933,10 +1868,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-38.33732830212701</v>
+        <v>-41.81016172126436</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1063326548576907</v>
+        <v>0.07755621897644926</v>
       </c>
     </row>
     <row r="12">
@@ -1946,10 +1881,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>510.2127678518677</v>
+        <v>630.4143362603862</v>
       </c>
       <c r="C12" t="n">
-        <v>0.02396710849333578</v>
+        <v>0.003666208129485283</v>
       </c>
     </row>
     <row r="13">
@@ -1959,10 +1894,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>745.1405194334216</v>
+        <v>510.3625650718262</v>
       </c>
       <c r="C13" t="n">
-        <v>0.001209360447876327</v>
+        <v>0.00820472519215891</v>
       </c>
     </row>
     <row r="14">
@@ -1972,10 +1907,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.06466431992811209</v>
+        <v>-0.01820585820342493</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7828134199514918</v>
+        <v>0.9378398715115507</v>
       </c>
     </row>
     <row r="15">
@@ -1985,62 +1920,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0001754215555649328</v>
+        <v>0.000240579493891613</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1730737665728136</v>
+        <v>0.05256846951217986</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.06193916794061</v>
+        <v>23.32185352834033</v>
       </c>
       <c r="C16" t="n">
-        <v>0.06106077429690813</v>
+        <v>0.2861815569100946</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>54.53307947418519</v>
+        <v>-7644.126860456555</v>
       </c>
       <c r="C17" t="n">
-        <v>0.04725973872448173</v>
+        <v>0.06342795558591287</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-8445.365662536222</v>
+        <v>573.8461689433225</v>
       </c>
       <c r="C18" t="n">
-        <v>0.04123809959744473</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-3001.966016694305</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.6009981184234572</v>
+        <v>0.9156486464907586</v>
       </c>
     </row>
   </sheetData>
@@ -2054,7 +1976,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2086,10 +2008,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-5485.990048898242</v>
+        <v>4098.394069941532</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2156669488233462</v>
+        <v>0.1557961861973574</v>
       </c>
     </row>
     <row r="3">
@@ -2099,10 +2021,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-3707.817817550572</v>
+        <v>-3645.250169160782</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1522171379407271</v>
+        <v>0.1601662845840297</v>
       </c>
     </row>
     <row r="4">
@@ -2112,10 +2034,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1311.290390943217</v>
+        <v>1358.606766032825</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3129187206137586</v>
+        <v>0.2968225730850735</v>
       </c>
     </row>
     <row r="5">
@@ -2125,10 +2047,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-396.9509069604726</v>
+        <v>-401.8834524417932</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4607044076971785</v>
+        <v>0.4561563136792092</v>
       </c>
     </row>
     <row r="6">
@@ -2138,10 +2060,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-427.627673688118</v>
+        <v>-320.506952934061</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5254973100670171</v>
+        <v>0.6343966949930515</v>
       </c>
     </row>
     <row r="7">
@@ -2151,10 +2073,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-777.6879540072839</v>
+        <v>-813.8295246689129</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2653033172692598</v>
+        <v>0.2447142103165216</v>
       </c>
     </row>
     <row r="8">
@@ -2164,10 +2086,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1137.134001978286</v>
+        <v>-1113.285777236159</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1072741946763405</v>
+        <v>0.1156231347436121</v>
       </c>
     </row>
     <row r="9">
@@ -2177,10 +2099,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>592.2182168045249</v>
+        <v>568.8311622997938</v>
       </c>
       <c r="C9" t="n">
-        <v>0.006743575949524384</v>
+        <v>0.00936221629897809</v>
       </c>
     </row>
     <row r="10">
@@ -2190,10 +2112,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2543.105531564827</v>
+        <v>-2518.009102838835</v>
       </c>
       <c r="C10" t="n">
-        <v>7.238539638687281e-08</v>
+        <v>1.02839222000853e-07</v>
       </c>
     </row>
     <row r="11">
@@ -2203,10 +2125,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-43.72550846085529</v>
+        <v>-50.18806417764353</v>
       </c>
       <c r="C11" t="n">
-        <v>0.05314011355813646</v>
+        <v>0.02604983374718055</v>
       </c>
     </row>
     <row r="12">
@@ -2216,10 +2138,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>353.883574685699</v>
+        <v>527.3005007446408</v>
       </c>
       <c r="C12" t="n">
-        <v>0.09884925808484141</v>
+        <v>0.0105364144954739</v>
       </c>
     </row>
     <row r="13">
@@ -2229,10 +2151,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>960.2977309550047</v>
+        <v>615.3591981160674</v>
       </c>
       <c r="C13" t="n">
-        <v>1.260970589415222e-05</v>
+        <v>0.0007973228396240291</v>
       </c>
     </row>
     <row r="14">
@@ -2242,10 +2164,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.1535708444841582</v>
+        <v>-0.08529402727045966</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4859063085573543</v>
+        <v>0.6976542447250036</v>
       </c>
     </row>
     <row r="15">
@@ -2255,62 +2177,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0001934085406612404</v>
+        <v>0.0002884143883117084</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1196782721679818</v>
+        <v>0.01628954772074557</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>140.9617777773327</v>
+        <v>32.54264769382564</v>
       </c>
       <c r="C16" t="n">
-        <v>0.004454219678192488</v>
+        <v>0.1308524132752758</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>76.66477429882664</v>
+        <v>-7483.906062802987</v>
       </c>
       <c r="C17" t="n">
-        <v>0.003847492880143575</v>
+        <v>0.05769355229262809</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-8684.654414124729</v>
+        <v>1654.052989529462</v>
       </c>
       <c r="C18" t="n">
-        <v>0.02820209061524819</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-3486.7815873796</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.5214353256244901</v>
+        <v>0.7476641365191876</v>
       </c>
     </row>
   </sheetData>
@@ -2324,7 +2233,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2356,10 +2265,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1931.053583298981</v>
+        <v>5078.618016099179</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6754366783125585</v>
+        <v>0.08573341375242305</v>
       </c>
     </row>
     <row r="3">
@@ -2369,10 +2278,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-3897.497906553559</v>
+        <v>-3904.467231318081</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1773783969267375</v>
+        <v>0.1770008132549061</v>
       </c>
     </row>
     <row r="4">
@@ -2382,10 +2291,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1475.329159371206</v>
+        <v>1528.141785127059</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2592047088457768</v>
+        <v>0.2428795123680965</v>
       </c>
     </row>
     <row r="5">
@@ -2395,10 +2304,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-306.7591093722963</v>
+        <v>-307.6754880824196</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5828041146157908</v>
+        <v>0.5820242382011505</v>
       </c>
     </row>
     <row r="6">
@@ -2408,10 +2317,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-432.194307335611</v>
+        <v>-335.9480309802076</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5311127624027749</v>
+        <v>0.6258228142192933</v>
       </c>
     </row>
     <row r="7">
@@ -2421,10 +2330,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1149.293263075496</v>
+        <v>-1157.425328548871</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1055568199809722</v>
+        <v>0.1034250124085622</v>
       </c>
     </row>
     <row r="8">
@@ -2434,10 +2343,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-730.3020746563723</v>
+        <v>-701.1570079843573</v>
       </c>
       <c r="C8" t="n">
-        <v>0.31353990874607</v>
+        <v>0.3335796644959229</v>
       </c>
     </row>
     <row r="9">
@@ -2447,10 +2356,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>522.3101787612546</v>
+        <v>507.3206121718169</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01989647519937895</v>
+        <v>0.02377099459601792</v>
       </c>
     </row>
     <row r="10">
@@ -2460,10 +2369,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2147.486689965674</v>
+        <v>-2125.0186194829</v>
       </c>
       <c r="C10" t="n">
-        <v>1.15835007746648e-05</v>
+        <v>1.445046491534654e-05</v>
       </c>
     </row>
     <row r="11">
@@ -2473,10 +2382,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-49.71155556720629</v>
+        <v>-53.51693572023122</v>
       </c>
       <c r="C11" t="n">
-        <v>0.03266683359218379</v>
+        <v>0.02115520442037129</v>
       </c>
     </row>
     <row r="12">
@@ -2486,10 +2395,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>330.3233474319143</v>
+        <v>451.8236674224902</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1414654087358098</v>
+        <v>0.03677235545585252</v>
       </c>
     </row>
     <row r="13">
@@ -2499,10 +2408,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>893.9262836764813</v>
+        <v>647.5138986017075</v>
       </c>
       <c r="C13" t="n">
-        <v>9.902111985760604e-05</v>
+        <v>0.0007818069698674982</v>
       </c>
     </row>
     <row r="14">
@@ -2512,10 +2421,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.3416151846790855</v>
+        <v>-0.2910573046861487</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1388053203433481</v>
+        <v>0.2048157511958302</v>
       </c>
     </row>
     <row r="15">
@@ -2525,62 +2434,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0003308520584097683</v>
+        <v>0.0003999777246210821</v>
       </c>
       <c r="C15" t="n">
-        <v>0.00981254123733012</v>
+        <v>0.001193997549999888</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>102.7910403815683</v>
+        <v>24.41933101771592</v>
       </c>
       <c r="C16" t="n">
-        <v>0.04806647682750585</v>
+        <v>0.2693750861533195</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>57.50182190546839</v>
+        <v>-9532.486876881325</v>
       </c>
       <c r="C17" t="n">
-        <v>0.03805624478547391</v>
+        <v>0.01895228243402869</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-10488.84614871349</v>
+        <v>5565.484659056094</v>
       </c>
       <c r="C18" t="n">
-        <v>0.01029873375409488</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>1825.178492907067</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.7491758434824789</v>
+        <v>0.3019920095027157</v>
       </c>
     </row>
   </sheetData>
@@ -2594,7 +2490,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2626,10 +2522,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1545.07538729409</v>
+        <v>5215.787106526122</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7335683720477997</v>
+        <v>0.07464775783567287</v>
       </c>
     </row>
     <row r="3">
@@ -2639,10 +2535,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-3603.497957721409</v>
+        <v>-3539.545010775917</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2038663977572621</v>
+        <v>0.2119169252327134</v>
       </c>
     </row>
     <row r="4">
@@ -2652,10 +2548,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1546.957763886288</v>
+        <v>1557.383673231766</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2628439477110079</v>
+        <v>0.259647407855801</v>
       </c>
     </row>
     <row r="5">
@@ -2665,10 +2561,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-835.0378630147716</v>
+        <v>-845.9734164728735</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1301262093514455</v>
+        <v>0.125121985788792</v>
       </c>
     </row>
     <row r="6">
@@ -2678,10 +2574,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>161.8989189448463</v>
+        <v>218.016993997814</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8112175679006089</v>
+        <v>0.7469792781791058</v>
       </c>
     </row>
     <row r="7">
@@ -2691,10 +2587,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-650.9375858432405</v>
+        <v>-644.7609663425997</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3543588388576036</v>
+        <v>0.3589437928752218</v>
       </c>
     </row>
     <row r="8">
@@ -2704,10 +2600,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-534.3635814764859</v>
+        <v>-512.8181298358098</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4549248851179207</v>
+        <v>0.4731450449042388</v>
       </c>
     </row>
     <row r="9">
@@ -2717,10 +2613,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>702.7223153916829</v>
+        <v>696.2409095929205</v>
       </c>
       <c r="C9" t="n">
-        <v>0.001816839865621448</v>
+        <v>0.001994827410961937</v>
       </c>
     </row>
     <row r="10">
@@ -2730,10 +2626,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2119.856751902922</v>
+        <v>-2112.171079556817</v>
       </c>
       <c r="C10" t="n">
-        <v>1.066662696843199e-05</v>
+        <v>1.145672172089305e-05</v>
       </c>
     </row>
     <row r="11">
@@ -2743,10 +2639,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-59.86800130600946</v>
+        <v>-62.08405994096734</v>
       </c>
       <c r="C11" t="n">
-        <v>0.009494730652052547</v>
+        <v>0.006922343493872995</v>
       </c>
     </row>
     <row r="12">
@@ -2756,10 +2652,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>583.4118113227235</v>
+        <v>645.2353696893931</v>
       </c>
       <c r="C12" t="n">
-        <v>0.009805582727964215</v>
+        <v>0.003114447729048995</v>
       </c>
     </row>
     <row r="13">
@@ -2769,10 +2665,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>707.5137018811672</v>
+        <v>582.1794450037569</v>
       </c>
       <c r="C13" t="n">
-        <v>0.00167226754340787</v>
+        <v>0.00233330955799296</v>
       </c>
     </row>
     <row r="14">
@@ -2782,10 +2678,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.06398707978714062</v>
+        <v>-0.04066079227504811</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7768499256886148</v>
+        <v>0.8563950318885089</v>
       </c>
     </row>
     <row r="15">
@@ -2795,62 +2691,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0003101260240573829</v>
+        <v>0.000348615673264294</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01360809639047256</v>
+        <v>0.003767747558073306</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>53.99512084412515</v>
+        <v>26.23962805680874</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2904370200051995</v>
+        <v>0.2229196777791468</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>43.52066615228539</v>
+        <v>-10206.2357347764</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1074609363873827</v>
+        <v>0.01133137104389946</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-10661.83583352471</v>
+        <v>135.4076595694821</v>
       </c>
       <c r="C18" t="n">
-        <v>0.008533037404195724</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-1873.632150434519</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.7374993928049413</v>
+        <v>0.9794523306327674</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/dist_commute/Leipzig.xlsx
+++ b/outputs/ML_Results/dist_commute/Leipzig.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ14618609" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ14844268" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ15087260" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ15336966" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ15613926" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ15888285" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ16153600" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ16426640" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ16699115" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ27382882" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ27585119" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ27807679" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ28033289" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ28249688" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ28470616" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ28687357" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ28902756" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ29121518" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5881.319669400462</v>
+        <v>5881.319671047301</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04507954303826634</v>
+        <v>0.04507954298416887</v>
       </c>
     </row>
     <row r="3">
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-2935.607006885891</v>
+        <v>-2935.607006337802</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3407948501685693</v>
+        <v>0.3407948501685787</v>
       </c>
     </row>
     <row r="4">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-145.8469463471445</v>
+        <v>-145.8469461813881</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9100214031222336</v>
+        <v>0.9100214032234568</v>
       </c>
     </row>
     <row r="5">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-603.8790338013009</v>
+        <v>-603.8790336095178</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2690168264273901</v>
+        <v>0.2690168265609113</v>
       </c>
     </row>
     <row r="6">
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-66.11095248320143</v>
+        <v>-66.11095224869163</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9221391159683611</v>
+        <v>0.922139116241153</v>
       </c>
     </row>
     <row r="7">
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-542.1753102158575</v>
+        <v>-542.1753100422259</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4402460401083653</v>
+        <v>0.4402460402473612</v>
       </c>
     </row>
     <row r="8">
@@ -544,10 +544,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-353.0389516579507</v>
+        <v>-353.0389514089454</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6242993660290641</v>
+        <v>0.6242993662657559</v>
       </c>
     </row>
     <row r="9">
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>452.2747512740917</v>
+        <v>452.2747512147614</v>
       </c>
       <c r="C9" t="n">
-        <v>0.04149408312955589</v>
+        <v>0.04149408315583521</v>
       </c>
     </row>
     <row r="10">
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2540.17901309286</v>
+        <v>-2540.17901308824</v>
       </c>
       <c r="C10" t="n">
-        <v>1.490596300698551e-07</v>
+        <v>1.490596300803174e-07</v>
       </c>
     </row>
     <row r="11">
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-62.53041779084361</v>
+        <v>-62.53041778525092</v>
       </c>
       <c r="C11" t="n">
-        <v>0.006274782327762318</v>
+        <v>0.006274782331711561</v>
       </c>
     </row>
     <row r="12">
@@ -596,10 +596,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>474.4827844596898</v>
+        <v>474.4827844941252</v>
       </c>
       <c r="C12" t="n">
-        <v>0.02616352037263751</v>
+        <v>0.0261635203634151</v>
       </c>
     </row>
     <row r="13">
@@ -609,10 +609,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>404.528058547271</v>
+        <v>404.528058316584</v>
       </c>
       <c r="C13" t="n">
-        <v>0.03196681584466108</v>
+        <v>0.0319668159415278</v>
       </c>
     </row>
     <row r="14">
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.09595876641173225</v>
+        <v>-9.59587663572851</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6807679987447448</v>
+        <v>0.6807679989187043</v>
       </c>
     </row>
     <row r="15">
@@ -635,10 +635,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0003286742434603555</v>
+        <v>328.6742433520239</v>
       </c>
       <c r="C15" t="n">
-        <v>0.007000817618521988</v>
+        <v>0.007000817623928805</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>47.56040053671158</v>
+        <v>47.56040053671219</v>
       </c>
       <c r="C16" t="n">
-        <v>0.03150899888171603</v>
+        <v>0.03150899888171361</v>
       </c>
     </row>
     <row r="17">
@@ -661,10 +661,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-11280.01688669062</v>
+        <v>-112.8001688669065</v>
       </c>
       <c r="C17" t="n">
-        <v>0.006818650280851212</v>
+        <v>0.006818650280851117</v>
       </c>
     </row>
     <row r="18">
@@ -674,10 +674,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-2320.031730315684</v>
+        <v>-23.20031730315706</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6670363070843723</v>
+        <v>0.6670363070843697</v>
       </c>
     </row>
   </sheetData>
@@ -723,10 +723,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5616.876987969745</v>
+        <v>5616.876989480897</v>
       </c>
       <c r="C2" t="n">
-        <v>0.05438377141839603</v>
+        <v>0.05438377135855616</v>
       </c>
     </row>
     <row r="3">
@@ -736,10 +736,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-4410.524439024291</v>
+        <v>-4410.52443849509</v>
       </c>
       <c r="C3" t="n">
-        <v>0.09523379668301285</v>
+        <v>0.0952337966830072</v>
       </c>
     </row>
     <row r="4">
@@ -749,10 +749,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-55.79153101324187</v>
+        <v>-55.79153091174339</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9664745024339678</v>
+        <v>0.9664745024948338</v>
       </c>
     </row>
     <row r="5">
@@ -762,10 +762,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-549.9768907326597</v>
+        <v>-549.9768903974921</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3139478084407274</v>
+        <v>0.3139478087124586</v>
       </c>
     </row>
     <row r="6">
@@ -775,10 +775,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-150.7435322400363</v>
+        <v>-150.743532398793</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8228256783089779</v>
+        <v>0.822825678127404</v>
       </c>
     </row>
     <row r="7">
@@ -788,10 +788,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1222.261145399768</v>
+        <v>-1222.261145412601</v>
       </c>
       <c r="C7" t="n">
-        <v>0.08193890445644371</v>
+        <v>0.0819389044533963</v>
       </c>
     </row>
     <row r="8">
@@ -801,10 +801,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-414.0416109909388</v>
+        <v>-414.0416108901234</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5653066946411253</v>
+        <v>0.5653066947353006</v>
       </c>
     </row>
     <row r="9">
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>705.8602013635059</v>
+        <v>705.8602013707466</v>
       </c>
       <c r="C9" t="n">
-        <v>0.001706071425684372</v>
+        <v>0.001706071425496943</v>
       </c>
     </row>
     <row r="10">
@@ -827,10 +827,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2342.454662617628</v>
+        <v>-2342.454662630796</v>
       </c>
       <c r="C10" t="n">
-        <v>1.225776384979411e-06</v>
+        <v>1.225776384798919e-06</v>
       </c>
     </row>
     <row r="11">
@@ -840,10 +840,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-47.98156479959624</v>
+        <v>-47.9815648031465</v>
       </c>
       <c r="C11" t="n">
-        <v>0.03505689374528138</v>
+        <v>0.03505689373340874</v>
       </c>
     </row>
     <row r="12">
@@ -853,10 +853,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>618.4232374777564</v>
+        <v>618.4232378544815</v>
       </c>
       <c r="C12" t="n">
-        <v>0.004412458955725393</v>
+        <v>0.004412458933950553</v>
       </c>
     </row>
     <row r="13">
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>530.5021831470387</v>
+        <v>530.5021829184586</v>
       </c>
       <c r="C13" t="n">
-        <v>0.00592865772035019</v>
+        <v>0.005928657741383251</v>
       </c>
     </row>
     <row r="14">
@@ -879,10 +879,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.04588342955744483</v>
+        <v>4.588342954512351</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8382648977686138</v>
+        <v>0.8382648978111438</v>
       </c>
     </row>
     <row r="15">
@@ -892,10 +892,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0003729371096987926</v>
+        <v>372.9371098802295</v>
       </c>
       <c r="C15" t="n">
-        <v>0.002420364930591343</v>
+        <v>0.002420364925610307</v>
       </c>
     </row>
     <row r="16">
@@ -905,10 +905,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>25.49591253903533</v>
+        <v>25.495912539034</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2362297382249688</v>
+        <v>0.2362297382249945</v>
       </c>
     </row>
     <row r="17">
@@ -918,10 +918,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-11525.12523376438</v>
+        <v>-115.251252337644</v>
       </c>
       <c r="C17" t="n">
-        <v>0.005751018922589626</v>
+        <v>0.005751018922589612</v>
       </c>
     </row>
     <row r="18">
@@ -931,10 +931,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-2775.809534953789</v>
+        <v>-27.75809534953824</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5982284834936853</v>
+        <v>0.5982284834936817</v>
       </c>
     </row>
   </sheetData>
@@ -980,10 +980,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4235.018485278235</v>
+        <v>4235.018493271007</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1394132213261585</v>
+        <v>0.1394132206161293</v>
       </c>
     </row>
     <row r="3">
@@ -993,10 +993,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-6766.075245208815</v>
+        <v>-6766.075241578097</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02664080575098676</v>
+        <v>0.02664080575098349</v>
       </c>
     </row>
     <row r="4">
@@ -1006,10 +1006,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2221.997127145294</v>
+        <v>2221.997126029709</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0868461453755331</v>
+        <v>0.08684614553934829</v>
       </c>
     </row>
     <row r="5">
@@ -1019,10 +1019,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-916.8419422180787</v>
+        <v>-916.8419433599614</v>
       </c>
       <c r="C5" t="n">
-        <v>0.08669481160915361</v>
+        <v>0.08669481125232059</v>
       </c>
     </row>
     <row r="6">
@@ -1032,10 +1032,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>426.8838867461623</v>
+        <v>426.8838872853212</v>
       </c>
       <c r="C6" t="n">
-        <v>0.514114555827865</v>
+        <v>0.5141145552851918</v>
       </c>
     </row>
     <row r="7">
@@ -1045,10 +1045,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-23.6349189137734</v>
+        <v>-23.63491883781346</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9726470122432486</v>
+        <v>0.9726470123310514</v>
       </c>
     </row>
     <row r="8">
@@ -1058,10 +1058,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-306.3887848685871</v>
+        <v>-306.3887847458711</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6638307186070966</v>
+        <v>0.6638307187337311</v>
       </c>
     </row>
     <row r="9">
@@ -1071,10 +1071,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>608.8426644619029</v>
+        <v>608.8426645043145</v>
       </c>
       <c r="C9" t="n">
-        <v>0.005812404096118988</v>
+        <v>0.005812404092706071</v>
       </c>
     </row>
     <row r="10">
@@ -1084,10 +1084,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2529.652418610081</v>
+        <v>-2529.652418507463</v>
       </c>
       <c r="C10" t="n">
-        <v>9.521734129438067e-08</v>
+        <v>9.521734141476564e-08</v>
       </c>
     </row>
     <row r="11">
@@ -1097,10 +1097,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-58.98082290789266</v>
+        <v>-58.98082291644909</v>
       </c>
       <c r="C11" t="n">
-        <v>0.008278064933076555</v>
+        <v>0.008278064924660846</v>
       </c>
     </row>
     <row r="12">
@@ -1110,10 +1110,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>552.0297634206431</v>
+        <v>552.0297635666975</v>
       </c>
       <c r="C12" t="n">
-        <v>0.008054593220051191</v>
+        <v>0.008054593203988231</v>
       </c>
     </row>
     <row r="13">
@@ -1123,10 +1123,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>603.2298657340793</v>
+        <v>603.2298650896402</v>
       </c>
       <c r="C13" t="n">
-        <v>0.001252280443390169</v>
+        <v>0.001252280458031257</v>
       </c>
     </row>
     <row r="14">
@@ -1136,10 +1136,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.1852494196498948</v>
+        <v>-18.52494196023088</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4027274297511013</v>
+        <v>0.4027274298732051</v>
       </c>
     </row>
     <row r="15">
@@ -1149,10 +1149,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0004894893810433754</v>
+        <v>489.4893806099834</v>
       </c>
       <c r="C15" t="n">
-        <v>6.667680836754579e-05</v>
+        <v>6.667680902415099e-05</v>
       </c>
     </row>
     <row r="16">
@@ -1162,10 +1162,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>22.99866990335565</v>
+        <v>22.9986699033536</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2803052021387216</v>
+        <v>0.2803052021387668</v>
       </c>
     </row>
     <row r="17">
@@ -1175,10 +1175,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-9439.540978889723</v>
+        <v>-94.39540978889808</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0178444524178497</v>
+        <v>0.01784445241784883</v>
       </c>
     </row>
     <row r="18">
@@ -1188,10 +1188,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>4858.366691467445</v>
+        <v>48.58366691467261</v>
       </c>
       <c r="C18" t="n">
-        <v>0.3482043381608678</v>
+        <v>0.3482043381608874</v>
       </c>
     </row>
   </sheetData>
@@ -1237,10 +1237,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4890.913828800487</v>
+        <v>4890.913833724393</v>
       </c>
       <c r="C2" t="n">
-        <v>0.09186537739520736</v>
+        <v>0.09186537710034992</v>
       </c>
     </row>
     <row r="3">
@@ -1250,10 +1250,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-3620.13066870741</v>
+        <v>-3620.130668540562</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2081920490652465</v>
+        <v>0.2081920490651996</v>
       </c>
     </row>
     <row r="4">
@@ -1263,10 +1263,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1294.042311668603</v>
+        <v>1294.04231179973</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3265700808336959</v>
+        <v>0.3265700807826138</v>
       </c>
     </row>
     <row r="5">
@@ -1276,10 +1276,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-835.69064222604</v>
+        <v>-835.6906428438333</v>
       </c>
       <c r="C5" t="n">
-        <v>0.131403758181214</v>
+        <v>0.1314037579355186</v>
       </c>
     </row>
     <row r="6">
@@ -1289,10 +1289,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>304.7936947311795</v>
+        <v>304.7936946664801</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6548245103953785</v>
+        <v>0.6548245104653236</v>
       </c>
     </row>
     <row r="7">
@@ -1302,10 +1302,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-573.1674550742655</v>
+        <v>-573.1674551577001</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4197257358720496</v>
+        <v>0.4197257358055153</v>
       </c>
     </row>
     <row r="8">
@@ -1315,10 +1315,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-408.7617061849184</v>
+        <v>-408.7617060982992</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5752537518791649</v>
+        <v>0.5752537519604809</v>
       </c>
     </row>
     <row r="9">
@@ -1328,10 +1328,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>688.9016700146318</v>
+        <v>688.90166991667</v>
       </c>
       <c r="C9" t="n">
-        <v>0.002168182910950872</v>
+        <v>0.002168182914204842</v>
       </c>
     </row>
     <row r="10">
@@ -1341,10 +1341,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2061.254668555416</v>
+        <v>-2061.254668540645</v>
       </c>
       <c r="C10" t="n">
-        <v>2.39383707748049e-05</v>
+        <v>2.393837077809707e-05</v>
       </c>
     </row>
     <row r="11">
@@ -1354,10 +1354,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-60.81110033988509</v>
+        <v>-60.81110033853169</v>
       </c>
       <c r="C11" t="n">
-        <v>0.008278916451002472</v>
+        <v>0.008278916452118229</v>
       </c>
     </row>
     <row r="12">
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>737.5999773172566</v>
+        <v>737.599977099674</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0008658535816757462</v>
+        <v>0.0008658535842905419</v>
       </c>
     </row>
     <row r="13">
@@ -1380,10 +1380,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>323.085750291455</v>
+        <v>323.0857501360908</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1014252861644049</v>
+        <v>0.1014252863270203</v>
       </c>
     </row>
     <row r="14">
@@ -1393,10 +1393,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.02746014985166997</v>
+        <v>2.746014988587611</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9054839012795396</v>
+        <v>0.9054839011632456</v>
       </c>
     </row>
     <row r="15">
@@ -1406,10 +1406,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0003146354310283279</v>
+        <v>314.6354305663513</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01285629084022134</v>
+        <v>0.01285629089704564</v>
       </c>
     </row>
     <row r="16">
@@ -1419,10 +1419,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>41.93817242088388</v>
+        <v>41.93817242088332</v>
       </c>
       <c r="C16" t="n">
-        <v>0.05337119477051251</v>
+        <v>0.05337119477051452</v>
       </c>
     </row>
     <row r="17">
@@ -1432,10 +1432,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-11061.56849520121</v>
+        <v>-110.6156849520121</v>
       </c>
       <c r="C17" t="n">
-        <v>0.007180425407585174</v>
+        <v>0.007180425407585241</v>
       </c>
     </row>
     <row r="18">
@@ -1445,10 +1445,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-2659.374694764344</v>
+        <v>-26.59374694764358</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6227161529505023</v>
+        <v>0.6227161529505008</v>
       </c>
     </row>
   </sheetData>
@@ -1494,10 +1494,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4695.277320894529</v>
+        <v>4695.277320205129</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1082872875566977</v>
+        <v>0.1082872876050066</v>
       </c>
     </row>
     <row r="3">
@@ -1507,10 +1507,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-4325.045080168617</v>
+        <v>-4325.045082655857</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1045826498950838</v>
+        <v>0.104582649895137</v>
       </c>
     </row>
     <row r="4">
@@ -1520,10 +1520,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1163.380054466481</v>
+        <v>1163.380054664206</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3877973971137496</v>
+        <v>0.38779739703072</v>
       </c>
     </row>
     <row r="5">
@@ -1533,10 +1533,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-731.7681194882442</v>
+        <v>-731.7681197174354</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1885739776924941</v>
+        <v>0.1885739775685227</v>
       </c>
     </row>
     <row r="6">
@@ -1546,10 +1546,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-162.3971821818727</v>
+        <v>-162.397182101527</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8116727064335587</v>
+        <v>0.8116727065238599</v>
       </c>
     </row>
     <row r="7">
@@ -1559,10 +1559,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-961.1320347412891</v>
+        <v>-961.1320348780412</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1721776738114528</v>
+        <v>0.1721776737532087</v>
       </c>
     </row>
     <row r="8">
@@ -1572,10 +1572,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-477.9379957308266</v>
+        <v>-477.937996087936</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5094249279549805</v>
+        <v>0.5094249276408599</v>
       </c>
     </row>
     <row r="9">
@@ -1585,10 +1585,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>724.45448823803</v>
+        <v>724.4544882928647</v>
       </c>
       <c r="C9" t="n">
-        <v>0.001605328559305103</v>
+        <v>0.001605328558001857</v>
       </c>
     </row>
     <row r="10">
@@ -1598,10 +1598,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1872.811433363087</v>
+        <v>-1872.811433346629</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0001158182284025583</v>
+        <v>0.0001158182284195129</v>
       </c>
     </row>
     <row r="11">
@@ -1611,10 +1611,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-73.44701091099151</v>
+        <v>-73.44701091532362</v>
       </c>
       <c r="C11" t="n">
-        <v>0.001408520723789022</v>
+        <v>0.001408520723052915</v>
       </c>
     </row>
     <row r="12">
@@ -1624,10 +1624,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>585.3027252201713</v>
+        <v>585.3027250895808</v>
       </c>
       <c r="C12" t="n">
-        <v>0.006577299071808335</v>
+        <v>0.006577299082682364</v>
       </c>
     </row>
     <row r="13">
@@ -1637,10 +1637,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>596.0872512854446</v>
+        <v>596.0872515974805</v>
       </c>
       <c r="C13" t="n">
-        <v>0.001711348673974435</v>
+        <v>0.001711348664589981</v>
       </c>
     </row>
     <row r="14">
@@ -1650,10 +1650,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.02977957703347985</v>
+        <v>-2.977957706015376</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8968843255539303</v>
+        <v>0.8968843254616484</v>
       </c>
     </row>
     <row r="15">
@@ -1663,10 +1663,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0004173035910984898</v>
+        <v>417.3035915210954</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0006677661143620656</v>
+        <v>0.0006677661027473807</v>
       </c>
     </row>
     <row r="16">
@@ -1676,10 +1676,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>34.86003795977431</v>
+        <v>34.8600379597722</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1076410932556856</v>
+        <v>0.1076410932557083</v>
       </c>
     </row>
     <row r="17">
@@ -1689,10 +1689,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-12876.47469080338</v>
+        <v>-128.7647469080344</v>
       </c>
       <c r="C17" t="n">
-        <v>0.00163003308515019</v>
+        <v>0.001630033085150141</v>
       </c>
     </row>
     <row r="18">
@@ -1702,10 +1702,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>241.0386219244515</v>
+        <v>2.410386219243804</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9643265590136959</v>
+        <v>0.9643265590137065</v>
       </c>
     </row>
   </sheetData>
@@ -1751,10 +1751,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4947.234177306436</v>
+        <v>4947.234176252062</v>
       </c>
       <c r="C2" t="n">
-        <v>0.09339042593078184</v>
+        <v>0.09339042599422888</v>
       </c>
     </row>
     <row r="3">
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-3801.665945405604</v>
+        <v>-3801.66594593479</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1592352497921053</v>
+        <v>0.1592352497922066</v>
       </c>
     </row>
     <row r="4">
@@ -1777,10 +1777,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1286.885356898497</v>
+        <v>1286.885356917552</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3306212439812551</v>
+        <v>0.3306212439738256</v>
       </c>
     </row>
     <row r="5">
@@ -1790,10 +1790,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-261.3101729400066</v>
+        <v>-261.3101728220016</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6426099834261483</v>
+        <v>0.642609983569507</v>
       </c>
     </row>
     <row r="6">
@@ -1803,10 +1803,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>49.96801315701902</v>
+        <v>49.96801301590571</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9422229208373796</v>
+        <v>0.9422229210009601</v>
       </c>
     </row>
     <row r="7">
@@ -1816,10 +1816,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1055.977462329825</v>
+        <v>-1055.977462380448</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1415806918993796</v>
+        <v>0.1415806918813624</v>
       </c>
     </row>
     <row r="8">
@@ -1829,10 +1829,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-859.0193903685384</v>
+        <v>-859.0193901880443</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2378636798386102</v>
+        <v>0.2378636799358064</v>
       </c>
     </row>
     <row r="9">
@@ -1842,10 +1842,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>718.3428337875164</v>
+        <v>718.3428338146422</v>
       </c>
       <c r="C9" t="n">
-        <v>0.001510252446934518</v>
+        <v>0.001510252446304608</v>
       </c>
     </row>
     <row r="10">
@@ -1855,10 +1855,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2694.753478295714</v>
+        <v>-2694.753478139461</v>
       </c>
       <c r="C10" t="n">
-        <v>4.824639311866092e-08</v>
+        <v>4.824639321414484e-08</v>
       </c>
     </row>
     <row r="11">
@@ -1868,10 +1868,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-41.81016172126436</v>
+        <v>-41.81016173489094</v>
       </c>
       <c r="C11" t="n">
-        <v>0.07755621897644926</v>
+        <v>0.07755621889275233</v>
       </c>
     </row>
     <row r="12">
@@ -1881,10 +1881,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>630.4143362603862</v>
+        <v>630.4143356361621</v>
       </c>
       <c r="C12" t="n">
-        <v>0.003666208129485283</v>
+        <v>0.003666208159290976</v>
       </c>
     </row>
     <row r="13">
@@ -1894,10 +1894,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>510.3625650718262</v>
+        <v>510.3625655922162</v>
       </c>
       <c r="C13" t="n">
-        <v>0.00820472519215891</v>
+        <v>0.008204725129020015</v>
       </c>
     </row>
     <row r="14">
@@ -1907,10 +1907,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.01820585820342493</v>
+        <v>-1.820585819830725</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9378398715115507</v>
+        <v>0.9378398715290531</v>
       </c>
     </row>
     <row r="15">
@@ -1920,10 +1920,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.000240579493891613</v>
+        <v>240.5794938252408</v>
       </c>
       <c r="C15" t="n">
-        <v>0.05256846951217986</v>
+        <v>0.05256846948424657</v>
       </c>
     </row>
     <row r="16">
@@ -1933,10 +1933,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>23.32185352834033</v>
+        <v>23.32185352833833</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2861815569100946</v>
+        <v>0.2861815569101411</v>
       </c>
     </row>
     <row r="17">
@@ -1946,10 +1946,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-7644.126860456555</v>
+        <v>-76.44126860456572</v>
       </c>
       <c r="C17" t="n">
-        <v>0.06342795558591287</v>
+        <v>0.06342795558591294</v>
       </c>
     </row>
     <row r="18">
@@ -1959,10 +1959,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>573.8461689433225</v>
+        <v>5.738461689432697</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9156486464907586</v>
+        <v>0.9156486464907665</v>
       </c>
     </row>
   </sheetData>
@@ -2008,10 +2008,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4098.394069941532</v>
+        <v>4098.394072698353</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1557961861973574</v>
+        <v>0.1557961859406663</v>
       </c>
     </row>
     <row r="3">
@@ -2021,10 +2021,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-3645.250169160782</v>
+        <v>-3645.250168178398</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1601662845840297</v>
+        <v>0.1601662845841811</v>
       </c>
     </row>
     <row r="4">
@@ -2034,10 +2034,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1358.606766032825</v>
+        <v>1358.60676570786</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2968225730850735</v>
+        <v>0.296822573205955</v>
       </c>
     </row>
     <row r="5">
@@ -2047,10 +2047,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-401.8834524417932</v>
+        <v>-401.8834528542155</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4561563136792092</v>
+        <v>0.4561563132500217</v>
       </c>
     </row>
     <row r="6">
@@ -2060,10 +2060,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-320.506952934061</v>
+        <v>-320.5069527916881</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6343966949930515</v>
+        <v>0.6343966951391711</v>
       </c>
     </row>
     <row r="7">
@@ -2073,10 +2073,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-813.8295246689129</v>
+        <v>-813.8295245520503</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2447142103165216</v>
+        <v>0.2447142103813187</v>
       </c>
     </row>
     <row r="8">
@@ -2086,10 +2086,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1113.285777236159</v>
+        <v>-1113.285776930399</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1156231347436121</v>
+        <v>0.1156231348411413</v>
       </c>
     </row>
     <row r="9">
@@ -2099,10 +2099,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>568.8311622997938</v>
+        <v>568.8311623151478</v>
       </c>
       <c r="C9" t="n">
-        <v>0.00936221629897809</v>
+        <v>0.009362216297072673</v>
       </c>
     </row>
     <row r="10">
@@ -2112,10 +2112,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2518.009102838835</v>
+        <v>-2518.009102809041</v>
       </c>
       <c r="C10" t="n">
-        <v>1.02839222000853e-07</v>
+        <v>1.028392220394395e-07</v>
       </c>
     </row>
     <row r="11">
@@ -2125,10 +2125,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-50.18806417764353</v>
+        <v>-50.18806417374461</v>
       </c>
       <c r="C11" t="n">
-        <v>0.02604983374718055</v>
+        <v>0.02604983375687788</v>
       </c>
     </row>
     <row r="12">
@@ -2138,10 +2138,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>527.3005007446408</v>
+        <v>527.3005002268591</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0105364144954739</v>
+        <v>0.01053641456362466</v>
       </c>
     </row>
     <row r="13">
@@ -2151,10 +2151,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>615.3591981160674</v>
+        <v>615.3591983607673</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0007973228396240291</v>
+        <v>0.0007973228359001499</v>
       </c>
     </row>
     <row r="14">
@@ -2164,10 +2164,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.08529402727045966</v>
+        <v>-8.529402731445275</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6976542447250036</v>
+        <v>0.6976542445742457</v>
       </c>
     </row>
     <row r="15">
@@ -2177,10 +2177,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0002884143883117084</v>
+        <v>288.4143880343362</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01628954772074557</v>
+        <v>0.01628954777291935</v>
       </c>
     </row>
     <row r="16">
@@ -2190,10 +2190,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>32.54264769382564</v>
+        <v>32.54264769382345</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1308524132752758</v>
+        <v>0.1308524132753037</v>
       </c>
     </row>
     <row r="17">
@@ -2203,10 +2203,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-7483.906062802987</v>
+        <v>-74.83906062802984</v>
       </c>
       <c r="C17" t="n">
-        <v>0.05769355229262809</v>
+        <v>0.05769355229262817</v>
       </c>
     </row>
     <row r="18">
@@ -2216,10 +2216,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1654.052989529462</v>
+        <v>16.54052989529419</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7476641365191876</v>
+        <v>0.7476641365191939</v>
       </c>
     </row>
   </sheetData>
@@ -2265,10 +2265,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5078.618016099179</v>
+        <v>5078.618018407</v>
       </c>
       <c r="C2" t="n">
-        <v>0.08573341375242305</v>
+        <v>0.08573341362146683</v>
       </c>
     </row>
     <row r="3">
@@ -2278,10 +2278,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-3904.467231318081</v>
+        <v>-3904.467231031304</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1770008132549061</v>
+        <v>0.1770008132546647</v>
       </c>
     </row>
     <row r="4">
@@ -2291,10 +2291,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1528.141785127059</v>
+        <v>1528.1417850814</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2428795123680965</v>
+        <v>0.2428795123828649</v>
       </c>
     </row>
     <row r="5">
@@ -2304,10 +2304,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-307.6754880824196</v>
+        <v>-307.6754883488412</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5820242382011505</v>
+        <v>0.5820242378902498</v>
       </c>
     </row>
     <row r="6">
@@ -2317,10 +2317,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-335.9480309802076</v>
+        <v>-335.9480313289265</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6258228142192933</v>
+        <v>0.6258228138683457</v>
       </c>
     </row>
     <row r="7">
@@ -2330,10 +2330,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1157.425328548871</v>
+        <v>-1157.425328652216</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1034250124085622</v>
+        <v>0.1034250123790994</v>
       </c>
     </row>
     <row r="8">
@@ -2343,10 +2343,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-701.1570079843573</v>
+        <v>-701.1570083197572</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3335796644959229</v>
+        <v>0.3335796642642317</v>
       </c>
     </row>
     <row r="9">
@@ -2356,10 +2356,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>507.3206121718169</v>
+        <v>507.3206123593633</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02377099459601792</v>
+        <v>0.02377099454474416</v>
       </c>
     </row>
     <row r="10">
@@ -2369,10 +2369,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2125.0186194829</v>
+        <v>-2125.018619466755</v>
       </c>
       <c r="C10" t="n">
-        <v>1.445046491534654e-05</v>
+        <v>1.445046491757571e-05</v>
       </c>
     </row>
     <row r="11">
@@ -2382,10 +2382,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-53.51693572023122</v>
+        <v>-53.51693570881486</v>
       </c>
       <c r="C11" t="n">
-        <v>0.02115520442037129</v>
+        <v>0.0211552044430701</v>
       </c>
     </row>
     <row r="12">
@@ -2395,10 +2395,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>451.8236674224902</v>
+        <v>451.8236675561312</v>
       </c>
       <c r="C12" t="n">
-        <v>0.03677235545585252</v>
+        <v>0.0367723554043048</v>
       </c>
     </row>
     <row r="13">
@@ -2408,10 +2408,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>647.5138986017075</v>
+        <v>647.5138984280077</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0007818069698674982</v>
+        <v>0.0007818069722450091</v>
       </c>
     </row>
     <row r="14">
@@ -2421,10 +2421,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.2910573046861487</v>
+        <v>-29.10573047197136</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2048157511958302</v>
+        <v>0.2048157511395019</v>
       </c>
     </row>
     <row r="15">
@@ -2434,10 +2434,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0003999777246210821</v>
+        <v>399.9777252778947</v>
       </c>
       <c r="C15" t="n">
-        <v>0.001193997549999888</v>
+        <v>0.001193997523073309</v>
       </c>
     </row>
     <row r="16">
@@ -2447,10 +2447,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>24.41933101771592</v>
+        <v>24.41933101771359</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2693750861533195</v>
+        <v>0.2693750861533662</v>
       </c>
     </row>
     <row r="17">
@@ -2460,10 +2460,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-9532.486876881325</v>
+        <v>-95.32486876881308</v>
       </c>
       <c r="C17" t="n">
-        <v>0.01895228243402869</v>
+        <v>0.01895228243402893</v>
       </c>
     </row>
     <row r="18">
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>5565.484659056094</v>
+        <v>55.65484659056058</v>
       </c>
       <c r="C18" t="n">
-        <v>0.3019920095027157</v>
+        <v>0.301992009502719</v>
       </c>
     </row>
   </sheetData>
@@ -2522,10 +2522,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5215.787106526122</v>
+        <v>5215.787107576092</v>
       </c>
       <c r="C2" t="n">
-        <v>0.07464775783567287</v>
+        <v>0.07464775778176777</v>
       </c>
     </row>
     <row r="3">
@@ -2535,10 +2535,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-3539.545010775917</v>
+        <v>-3539.545008814377</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2119169252327134</v>
+        <v>0.2119169252326167</v>
       </c>
     </row>
     <row r="4">
@@ -2548,10 +2548,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1557.383673231766</v>
+        <v>1557.383673466501</v>
       </c>
       <c r="C4" t="n">
-        <v>0.259647407855801</v>
+        <v>0.2596474077806017</v>
       </c>
     </row>
     <row r="5">
@@ -2561,10 +2561,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-845.9734164728735</v>
+        <v>-845.973416647181</v>
       </c>
       <c r="C5" t="n">
-        <v>0.125121985788792</v>
+        <v>0.1251219857227044</v>
       </c>
     </row>
     <row r="6">
@@ -2574,10 +2574,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>218.016993997814</v>
+        <v>218.0169939858277</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7469792781791058</v>
+        <v>0.7469792781928319</v>
       </c>
     </row>
     <row r="7">
@@ -2587,10 +2587,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-644.7609663425997</v>
+        <v>-644.7609662470661</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3589437928752218</v>
+        <v>0.3589437929437181</v>
       </c>
     </row>
     <row r="8">
@@ -2600,10 +2600,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-512.8181298358098</v>
+        <v>-512.8181296126606</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4731450449042388</v>
+        <v>0.4731450450934427</v>
       </c>
     </row>
     <row r="9">
@@ -2613,10 +2613,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>696.2409095929205</v>
+        <v>696.2409096103397</v>
       </c>
       <c r="C9" t="n">
-        <v>0.001994827410961937</v>
+        <v>0.001994827410451345</v>
       </c>
     </row>
     <row r="10">
@@ -2626,10 +2626,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2112.171079556817</v>
+        <v>-2112.171079568129</v>
       </c>
       <c r="C10" t="n">
-        <v>1.145672172089305e-05</v>
+        <v>1.145672171960684e-05</v>
       </c>
     </row>
     <row r="11">
@@ -2639,10 +2639,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-62.08405994096734</v>
+        <v>-62.08405994970231</v>
       </c>
       <c r="C11" t="n">
-        <v>0.006922343493872995</v>
+        <v>0.006922343487393828</v>
       </c>
     </row>
     <row r="12">
@@ -2652,10 +2652,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>645.2353696893931</v>
+        <v>645.2353696604264</v>
       </c>
       <c r="C12" t="n">
-        <v>0.003114447729048995</v>
+        <v>0.003114447730254246</v>
       </c>
     </row>
     <row r="13">
@@ -2665,10 +2665,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>582.1794450037569</v>
+        <v>582.1794448007752</v>
       </c>
       <c r="C13" t="n">
-        <v>0.00233330955799296</v>
+        <v>0.00233330956615101</v>
       </c>
     </row>
     <row r="14">
@@ -2678,10 +2678,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.04066079227504811</v>
+        <v>-4.066079218489778</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8563950318885089</v>
+        <v>0.8563950322049521</v>
       </c>
     </row>
     <row r="15">
@@ -2691,10 +2691,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.000348615673264294</v>
+        <v>348.6156726632817</v>
       </c>
       <c r="C15" t="n">
-        <v>0.003767747558073306</v>
+        <v>0.003767747626577765</v>
       </c>
     </row>
     <row r="16">
@@ -2704,10 +2704,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>26.23962805680874</v>
+        <v>26.23962805680769</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2229196777791468</v>
+        <v>0.222919677779167</v>
       </c>
     </row>
     <row r="17">
@@ -2717,10 +2717,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-10206.2357347764</v>
+        <v>-102.0623573477641</v>
       </c>
       <c r="C17" t="n">
-        <v>0.01133137104389946</v>
+        <v>0.0113313710438995</v>
       </c>
     </row>
     <row r="18">
@@ -2730,10 +2730,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>135.4076595694821</v>
+        <v>1.354076595694979</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9794523306327674</v>
+        <v>0.979452330632765</v>
       </c>
     </row>
   </sheetData>
